--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_23_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_23_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4144971.830336287</v>
+        <v>-4145666.320726463</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9219328.668728508</v>
+        <v>9219328.668728514</v>
       </c>
     </row>
     <row r="8">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.6361464994337</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>103.6361464994337</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>103.6361464994337</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>28.48326588019904</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.2035175449734</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.59593441152833</v>
+        <v>46.59593441152835</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.68678342517271</v>
       </c>
     </row>
     <row r="12">
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>21.21399937876948</v>
+        <v>21.21399937876951</v>
       </c>
       <c r="V12" t="n">
-        <v>28.09075441968557</v>
+        <v>28.0907544196856</v>
       </c>
       <c r="W12" t="n">
-        <v>46.9851504311799</v>
+        <v>46.98515043117993</v>
       </c>
       <c r="X12" t="n">
-        <v>1.063152473737773</v>
+        <v>1.063152473737802</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9728630475646582</v>
+        <v>0.9728630475646867</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.40929043842156</v>
+        <v>15.40929043842159</v>
       </c>
       <c r="T13" t="n">
-        <v>22.28019426330905</v>
+        <v>22.28019426330908</v>
       </c>
       <c r="U13" t="n">
-        <v>81.59699795736523</v>
+        <v>81.59699795736526</v>
       </c>
       <c r="V13" t="n">
-        <v>47.4278105940883</v>
+        <v>47.42781059408833</v>
       </c>
       <c r="W13" t="n">
-        <v>81.8131656068513</v>
+        <v>81.81316560685133</v>
       </c>
       <c r="X13" t="n">
-        <v>20.99982265929745</v>
+        <v>20.99982265929748</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.87482062235509</v>
+        <v>13.87482062235512</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="C14" t="n">
-        <v>103.6361464994337</v>
+        <v>91.28271783670104</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>103.6361464994337</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>103.6361464994337</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>28.48326588019926</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>16.2035175449734</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.59593441152833</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
     </row>
     <row r="15">
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>21.21399937876948</v>
+        <v>21.21399937876943</v>
       </c>
       <c r="V15" t="n">
-        <v>28.09075441968557</v>
+        <v>28.09075441968551</v>
       </c>
       <c r="W15" t="n">
-        <v>46.9851504311799</v>
+        <v>46.98515043117985</v>
       </c>
       <c r="X15" t="n">
-        <v>1.063152473737773</v>
+        <v>1.063152473737716</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9728630475646582</v>
+        <v>0.9728630475646014</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.40929043842156</v>
+        <v>15.4092904384215</v>
       </c>
       <c r="T16" t="n">
-        <v>22.28019426330905</v>
+        <v>22.28019426330899</v>
       </c>
       <c r="U16" t="n">
-        <v>81.59699795736523</v>
+        <v>81.59699795736518</v>
       </c>
       <c r="V16" t="n">
-        <v>47.4278105940883</v>
+        <v>47.42781059408824</v>
       </c>
       <c r="W16" t="n">
-        <v>81.8131656068513</v>
+        <v>81.81316560685124</v>
       </c>
       <c r="X16" t="n">
-        <v>20.99982265929745</v>
+        <v>20.99982265929739</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.87482062235509</v>
+        <v>13.87482062235503</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.36504088357987</v>
+        <v>48.36504088357981</v>
       </c>
       <c r="C17" t="n">
-        <v>30.90409099110684</v>
+        <v>30.90409099110678</v>
       </c>
       <c r="D17" t="n">
-        <v>20.31424084078225</v>
+        <v>20.31424084078219</v>
       </c>
       <c r="E17" t="n">
-        <v>47.56156929236107</v>
+        <v>47.56156929236101</v>
       </c>
       <c r="F17" t="n">
-        <v>72.50724496181073</v>
+        <v>72.50724496181067</v>
       </c>
       <c r="G17" t="n">
-        <v>80.43536465312849</v>
+        <v>80.43536465312843</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14.8721679375123</v>
+        <v>14.87216793751224</v>
       </c>
       <c r="X17" t="n">
-        <v>35.36229989856832</v>
+        <v>35.36229989856827</v>
       </c>
       <c r="Y17" t="n">
-        <v>51.86913787615288</v>
+        <v>51.86913787615282</v>
       </c>
     </row>
     <row r="18">
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>14.87216793751244</v>
+        <v>14.87216793751219</v>
       </c>
       <c r="X20" t="n">
         <v>35.36229989856821</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.3146718132376</v>
+        <v>212.3146718132377</v>
       </c>
       <c r="C26" t="n">
-        <v>194.8537219207646</v>
+        <v>194.8537219207647</v>
       </c>
       <c r="D26" t="n">
-        <v>184.26387177044</v>
+        <v>184.2638717704401</v>
       </c>
       <c r="E26" t="n">
-        <v>211.5112002220188</v>
+        <v>211.5112002220189</v>
       </c>
       <c r="F26" t="n">
-        <v>236.4568758914685</v>
+        <v>236.4568758914686</v>
       </c>
       <c r="G26" t="n">
-        <v>244.3849955827862</v>
+        <v>244.3849955827864</v>
       </c>
       <c r="H26" t="n">
-        <v>163.9496309296579</v>
+        <v>163.949630929658</v>
       </c>
       <c r="I26" t="n">
-        <v>20.83551952477814</v>
+        <v>20.83551952477825</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>27.23968841501591</v>
+        <v>27.23968841501601</v>
       </c>
       <c r="T26" t="n">
-        <v>50.49418042447016</v>
+        <v>50.49418042447027</v>
       </c>
       <c r="U26" t="n">
-        <v>80.88659729102508</v>
+        <v>80.8865972910252</v>
       </c>
       <c r="V26" t="n">
-        <v>157.333088619892</v>
+        <v>157.3330886198921</v>
       </c>
       <c r="W26" t="n">
-        <v>178.8217988671701</v>
+        <v>178.8217988671702</v>
       </c>
       <c r="X26" t="n">
-        <v>199.3119308282261</v>
+        <v>199.3119308282262</v>
       </c>
       <c r="Y26" t="n">
-        <v>215.8187688058106</v>
+        <v>215.8187688058107</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.289329138072787</v>
+        <v>2.289329138072901</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>28.67033053151739</v>
+        <v>28.6703305315175</v>
       </c>
       <c r="U27" t="n">
-        <v>55.50466225826623</v>
+        <v>55.50466225826634</v>
       </c>
       <c r="V27" t="n">
-        <v>62.38141729918232</v>
+        <v>62.38141729918243</v>
       </c>
       <c r="W27" t="n">
-        <v>81.27581331067665</v>
+        <v>81.27581331067677</v>
       </c>
       <c r="X27" t="n">
-        <v>35.35381535323452</v>
+        <v>35.35381535323464</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.26352592706141</v>
+        <v>35.26352592706152</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.412810331694345</v>
+        <v>9.412810331694459</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>49.69995331791831</v>
+        <v>49.69995331791843</v>
       </c>
       <c r="T28" t="n">
-        <v>56.5708571428058</v>
+        <v>56.57085714280591</v>
       </c>
       <c r="U28" t="n">
-        <v>115.887660836862</v>
+        <v>115.8876608368621</v>
       </c>
       <c r="V28" t="n">
-        <v>81.71847347358505</v>
+        <v>81.71847347358516</v>
       </c>
       <c r="W28" t="n">
-        <v>116.103828486348</v>
+        <v>116.1038284863482</v>
       </c>
       <c r="X28" t="n">
-        <v>55.2904855387942</v>
+        <v>55.29048553879431</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.16548350185184</v>
+        <v>48.16548350185195</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.3146718132376</v>
+        <v>212.3146718132377</v>
       </c>
       <c r="C29" t="n">
-        <v>194.8537219207646</v>
+        <v>194.8537219207647</v>
       </c>
       <c r="D29" t="n">
-        <v>184.26387177044</v>
+        <v>184.2638717704401</v>
       </c>
       <c r="E29" t="n">
-        <v>211.5112002220188</v>
+        <v>211.5112002220189</v>
       </c>
       <c r="F29" t="n">
-        <v>236.4568758914685</v>
+        <v>236.4568758914686</v>
       </c>
       <c r="G29" t="n">
-        <v>244.3849955827862</v>
+        <v>244.3849955827864</v>
       </c>
       <c r="H29" t="n">
-        <v>163.9496309296579</v>
+        <v>163.949630929658</v>
       </c>
       <c r="I29" t="n">
-        <v>20.83551952477814</v>
+        <v>20.83551952477822</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>27.23968841501591</v>
+        <v>27.23968841501598</v>
       </c>
       <c r="T29" t="n">
-        <v>50.49418042447016</v>
+        <v>50.49418042447024</v>
       </c>
       <c r="U29" t="n">
-        <v>80.88659729102508</v>
+        <v>80.88659729102517</v>
       </c>
       <c r="V29" t="n">
         <v>157.333088619892</v>
@@ -2855,10 +2855,10 @@
         <v>178.8217988671701</v>
       </c>
       <c r="X29" t="n">
-        <v>199.3119308282261</v>
+        <v>199.3119308282262</v>
       </c>
       <c r="Y29" t="n">
-        <v>215.8187688058106</v>
+        <v>215.8187688058107</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.289329138072787</v>
+        <v>2.289329138072873</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>28.67033053151739</v>
+        <v>28.67033053151747</v>
       </c>
       <c r="U30" t="n">
-        <v>55.50466225826623</v>
+        <v>55.50466225826631</v>
       </c>
       <c r="V30" t="n">
-        <v>62.38141729918232</v>
+        <v>62.3814172991824</v>
       </c>
       <c r="W30" t="n">
-        <v>81.27581331067665</v>
+        <v>81.27581331067674</v>
       </c>
       <c r="X30" t="n">
-        <v>35.35381535323452</v>
+        <v>35.35381535323461</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.26352592706141</v>
+        <v>35.26352592706149</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.412810331694345</v>
+        <v>9.41281033169443</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>49.69995331791831</v>
+        <v>49.6999533179184</v>
       </c>
       <c r="T31" t="n">
-        <v>56.5708571428058</v>
+        <v>56.57085714280588</v>
       </c>
       <c r="U31" t="n">
-        <v>115.887660836862</v>
+        <v>115.8876608368621</v>
       </c>
       <c r="V31" t="n">
-        <v>81.71847347358505</v>
+        <v>81.71847347358514</v>
       </c>
       <c r="W31" t="n">
-        <v>116.103828486348</v>
+        <v>116.1038284863481</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2904855387942</v>
+        <v>55.29048553879429</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.16548350185184</v>
+        <v>48.16548350185192</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.3146718132376</v>
+        <v>212.3146718132377</v>
       </c>
       <c r="C32" t="n">
-        <v>194.8537219207646</v>
+        <v>194.8537219207647</v>
       </c>
       <c r="D32" t="n">
-        <v>184.26387177044</v>
+        <v>184.2638717704401</v>
       </c>
       <c r="E32" t="n">
-        <v>211.5112002220188</v>
+        <v>211.5112002220189</v>
       </c>
       <c r="F32" t="n">
-        <v>236.4568758914685</v>
+        <v>236.4568758914686</v>
       </c>
       <c r="G32" t="n">
-        <v>244.3849955827862</v>
+        <v>244.3849955827864</v>
       </c>
       <c r="H32" t="n">
-        <v>163.9496309296579</v>
+        <v>163.949630929658</v>
       </c>
       <c r="I32" t="n">
-        <v>20.83551952477814</v>
+        <v>20.83551952477825</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>27.23968841501591</v>
+        <v>27.23968841501602</v>
       </c>
       <c r="T32" t="n">
-        <v>50.49418042447016</v>
+        <v>50.49418042447027</v>
       </c>
       <c r="U32" t="n">
-        <v>80.88659729102508</v>
+        <v>80.8865972910252</v>
       </c>
       <c r="V32" t="n">
-        <v>157.333088619892</v>
+        <v>157.3330886198921</v>
       </c>
       <c r="W32" t="n">
-        <v>178.8217988671701</v>
+        <v>178.8217988671702</v>
       </c>
       <c r="X32" t="n">
-        <v>199.3119308282261</v>
+        <v>199.3119308282262</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.8187688058106</v>
+        <v>215.8187688058107</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.289329138072787</v>
+        <v>2.289329138072901</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>28.67033053151739</v>
+        <v>28.6703305315175</v>
       </c>
       <c r="U33" t="n">
-        <v>55.50466225826623</v>
+        <v>55.50466225826634</v>
       </c>
       <c r="V33" t="n">
-        <v>62.38141729918232</v>
+        <v>62.38141729918243</v>
       </c>
       <c r="W33" t="n">
-        <v>81.27581331067665</v>
+        <v>81.27581331067677</v>
       </c>
       <c r="X33" t="n">
-        <v>35.35381535323452</v>
+        <v>35.35381535323464</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.26352592706141</v>
+        <v>35.26352592706152</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.412810331694345</v>
+        <v>9.412810331694459</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>49.69995331791831</v>
+        <v>49.69995331791843</v>
       </c>
       <c r="T34" t="n">
-        <v>56.5708571428058</v>
+        <v>56.57085714280591</v>
       </c>
       <c r="U34" t="n">
-        <v>115.887660836862</v>
+        <v>115.8876608368621</v>
       </c>
       <c r="V34" t="n">
-        <v>81.71847347358505</v>
+        <v>81.71847347358516</v>
       </c>
       <c r="W34" t="n">
-        <v>116.103828486348</v>
+        <v>116.1038284863482</v>
       </c>
       <c r="X34" t="n">
-        <v>55.2904855387942</v>
+        <v>55.29048553879431</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.16548350185184</v>
+        <v>48.16548350185195</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>185.0749833982216</v>
+        <v>185.0749833982217</v>
       </c>
       <c r="C35" t="n">
-        <v>167.6140335057486</v>
+        <v>167.6140335057487</v>
       </c>
       <c r="D35" t="n">
-        <v>157.024183355424</v>
+        <v>157.0241833554241</v>
       </c>
       <c r="E35" t="n">
-        <v>184.2715118070028</v>
+        <v>184.271511807003</v>
       </c>
       <c r="F35" t="n">
-        <v>209.2171874764525</v>
+        <v>209.2171874764526</v>
       </c>
       <c r="G35" t="n">
-        <v>217.1453071677703</v>
+        <v>217.1453071677704</v>
       </c>
       <c r="H35" t="n">
-        <v>136.7099425146419</v>
+        <v>136.7099425146421</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>23.25449200945416</v>
+        <v>23.25449200945428</v>
       </c>
       <c r="U35" t="n">
-        <v>53.64690887600909</v>
+        <v>53.64690887600921</v>
       </c>
       <c r="V35" t="n">
-        <v>130.093400204876</v>
+        <v>130.0934002048761</v>
       </c>
       <c r="W35" t="n">
-        <v>151.5821104521541</v>
+        <v>151.5821104521542</v>
       </c>
       <c r="X35" t="n">
-        <v>172.0722424132101</v>
+        <v>172.0722424132102</v>
       </c>
       <c r="Y35" t="n">
-        <v>188.5790803907946</v>
+        <v>188.5790803907948</v>
       </c>
     </row>
     <row r="36">
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.430642116501396</v>
+        <v>1.43064211650151</v>
       </c>
       <c r="U36" t="n">
-        <v>28.26497384325024</v>
+        <v>28.26497384325036</v>
       </c>
       <c r="V36" t="n">
-        <v>35.14172888416633</v>
+        <v>35.14172888416644</v>
       </c>
       <c r="W36" t="n">
-        <v>54.03612489566066</v>
+        <v>54.03612489566078</v>
       </c>
       <c r="X36" t="n">
-        <v>8.114126938218533</v>
+        <v>8.114126938218647</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.023837512045418</v>
+        <v>8.023837512045532</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>22.46026490290232</v>
+        <v>22.46026490290243</v>
       </c>
       <c r="T37" t="n">
-        <v>29.33116872778981</v>
+        <v>29.33116872778992</v>
       </c>
       <c r="U37" t="n">
-        <v>88.64797242184599</v>
+        <v>88.64797242184611</v>
       </c>
       <c r="V37" t="n">
-        <v>54.47878505856906</v>
+        <v>54.47878505856917</v>
       </c>
       <c r="W37" t="n">
-        <v>88.86414007133206</v>
+        <v>88.86414007133217</v>
       </c>
       <c r="X37" t="n">
-        <v>28.05079712377821</v>
+        <v>28.05079712377832</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.92579508683585</v>
+        <v>20.92579508683596</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.0749833982216</v>
+        <v>185.0749833982217</v>
       </c>
       <c r="C38" t="n">
-        <v>167.6140335057486</v>
+        <v>167.6140335057487</v>
       </c>
       <c r="D38" t="n">
-        <v>157.024183355424</v>
+        <v>157.0241833554241</v>
       </c>
       <c r="E38" t="n">
-        <v>184.2715118070028</v>
+        <v>184.271511807003</v>
       </c>
       <c r="F38" t="n">
-        <v>209.2171874764525</v>
+        <v>209.2171874764526</v>
       </c>
       <c r="G38" t="n">
-        <v>217.1453071677703</v>
+        <v>217.1453071677704</v>
       </c>
       <c r="H38" t="n">
-        <v>136.7099425146419</v>
+        <v>136.7099425146421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>23.25449200945414</v>
+        <v>23.25449200945428</v>
       </c>
       <c r="U38" t="n">
-        <v>53.64690887600906</v>
+        <v>53.64690887600921</v>
       </c>
       <c r="V38" t="n">
-        <v>130.0934002048759</v>
+        <v>130.0934002048761</v>
       </c>
       <c r="W38" t="n">
-        <v>151.582110452154</v>
+        <v>151.5821104521542</v>
       </c>
       <c r="X38" t="n">
-        <v>172.0722424132101</v>
+        <v>172.0722424132102</v>
       </c>
       <c r="Y38" t="n">
-        <v>188.5790803907946</v>
+        <v>188.5790803907948</v>
       </c>
     </row>
     <row r="39">
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.430642116501368</v>
+        <v>1.43064211650151</v>
       </c>
       <c r="U39" t="n">
-        <v>28.26497384325021</v>
+        <v>28.26497384325036</v>
       </c>
       <c r="V39" t="n">
-        <v>35.1417288841663</v>
+        <v>35.14172888416644</v>
       </c>
       <c r="W39" t="n">
-        <v>54.03612489566063</v>
+        <v>54.03612489566078</v>
       </c>
       <c r="X39" t="n">
-        <v>8.114126938218504</v>
+        <v>8.114126938218647</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.02383751204539</v>
+        <v>8.023837512045532</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.46026490290229</v>
+        <v>22.46026490290243</v>
       </c>
       <c r="T40" t="n">
-        <v>29.33116872778978</v>
+        <v>29.33116872778992</v>
       </c>
       <c r="U40" t="n">
-        <v>88.64797242184596</v>
+        <v>88.64797242184611</v>
       </c>
       <c r="V40" t="n">
-        <v>54.47878505856903</v>
+        <v>54.47878505856917</v>
       </c>
       <c r="W40" t="n">
-        <v>88.86414007133203</v>
+        <v>88.86414007133217</v>
       </c>
       <c r="X40" t="n">
-        <v>28.05079712377818</v>
+        <v>28.05079712377832</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.92579508683582</v>
+        <v>20.92579508683596</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.0749833982216</v>
+        <v>185.0749833982217</v>
       </c>
       <c r="C41" t="n">
-        <v>167.6140335057486</v>
+        <v>167.6140335057487</v>
       </c>
       <c r="D41" t="n">
-        <v>157.024183355424</v>
+        <v>157.0241833554241</v>
       </c>
       <c r="E41" t="n">
-        <v>184.2715118070028</v>
+        <v>184.2715118070029</v>
       </c>
       <c r="F41" t="n">
-        <v>209.2171874764525</v>
+        <v>209.2171874764526</v>
       </c>
       <c r="G41" t="n">
-        <v>217.1453071677702</v>
+        <v>217.1453071677704</v>
       </c>
       <c r="H41" t="n">
-        <v>136.7099425146419</v>
+        <v>136.709942514642</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>23.25449200945414</v>
+        <v>23.25449200945425</v>
       </c>
       <c r="U41" t="n">
-        <v>53.64690887600906</v>
+        <v>53.64690887600917</v>
       </c>
       <c r="V41" t="n">
-        <v>130.0934002048759</v>
+        <v>130.093400204876</v>
       </c>
       <c r="W41" t="n">
-        <v>151.582110452154</v>
+        <v>151.5821104521542</v>
       </c>
       <c r="X41" t="n">
-        <v>172.0722424132101</v>
+        <v>172.0722424132102</v>
       </c>
       <c r="Y41" t="n">
-        <v>188.5790803907946</v>
+        <v>188.5790803907947</v>
       </c>
     </row>
     <row r="42">
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.430642116501368</v>
+        <v>1.430642116501482</v>
       </c>
       <c r="U42" t="n">
-        <v>28.26497384325021</v>
+        <v>28.26497384325033</v>
       </c>
       <c r="V42" t="n">
-        <v>35.1417288841663</v>
+        <v>35.14172888416641</v>
       </c>
       <c r="W42" t="n">
-        <v>54.03612489566063</v>
+        <v>54.03612489566075</v>
       </c>
       <c r="X42" t="n">
-        <v>8.114126938218504</v>
+        <v>8.114126938218618</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.02383751204539</v>
+        <v>8.023837512045503</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22.46026490290229</v>
+        <v>22.46026490290241</v>
       </c>
       <c r="T43" t="n">
-        <v>29.33116872778978</v>
+        <v>29.33116872778989</v>
       </c>
       <c r="U43" t="n">
-        <v>88.64797242184596</v>
+        <v>88.64797242184608</v>
       </c>
       <c r="V43" t="n">
-        <v>54.47878505856903</v>
+        <v>54.47878505856914</v>
       </c>
       <c r="W43" t="n">
-        <v>88.86414007133203</v>
+        <v>88.86414007133214</v>
       </c>
       <c r="X43" t="n">
-        <v>28.05079712377818</v>
+        <v>28.0507971237783</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.92579508683582</v>
+        <v>20.92579508683593</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>209.2171874764526</v>
       </c>
       <c r="G44" t="n">
-        <v>217.1453071677703</v>
+        <v>217.1453071677704</v>
       </c>
       <c r="H44" t="n">
         <v>136.709942514642</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>23.25449200945422</v>
+        <v>23.25449200945425</v>
       </c>
       <c r="U44" t="n">
-        <v>53.64690887600914</v>
+        <v>53.64690887600917</v>
       </c>
       <c r="V44" t="n">
         <v>130.093400204876</v>
       </c>
       <c r="W44" t="n">
-        <v>151.5821104521541</v>
+        <v>151.5821104521542</v>
       </c>
       <c r="X44" t="n">
-        <v>172.0722424132101</v>
+        <v>172.0722424132102</v>
       </c>
       <c r="Y44" t="n">
         <v>188.5790803907947</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.430642116501456</v>
+        <v>1.430642116501482</v>
       </c>
       <c r="U45" t="n">
-        <v>28.2649738432503</v>
+        <v>28.26497384325033</v>
       </c>
       <c r="V45" t="n">
-        <v>35.14172888416638</v>
+        <v>35.14172888416641</v>
       </c>
       <c r="W45" t="n">
-        <v>54.03612489566072</v>
+        <v>54.03612489566075</v>
       </c>
       <c r="X45" t="n">
-        <v>8.11412693821859</v>
+        <v>8.114126938218618</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.023837512045475</v>
+        <v>8.023837512045503</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>22.46026490290239</v>
+        <v>22.46026490290241</v>
       </c>
       <c r="T46" t="n">
-        <v>29.33116872778987</v>
+        <v>29.33116872778989</v>
       </c>
       <c r="U46" t="n">
-        <v>88.64797242184605</v>
+        <v>88.64797242184608</v>
       </c>
       <c r="V46" t="n">
-        <v>54.47878505856912</v>
+        <v>54.47878505856914</v>
       </c>
       <c r="W46" t="n">
-        <v>88.86414007133212</v>
+        <v>88.86414007133214</v>
       </c>
       <c r="X46" t="n">
-        <v>28.05079712377827</v>
+        <v>28.0507971237783</v>
       </c>
       <c r="Y46" t="n">
-        <v>20.9257950868359</v>
+        <v>20.92579508683593</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>246.4278198806283</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="C11" t="n">
-        <v>141.7448436185736</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="D11" t="n">
-        <v>141.7448436185736</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="E11" t="n">
-        <v>37.06186735651939</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="F11" t="n">
-        <v>37.06186735651939</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="G11" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="H11" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="I11" t="n">
-        <v>21.61148364112612</v>
+        <v>21.61148364112609</v>
       </c>
       <c r="J11" t="n">
-        <v>86.931297993242</v>
+        <v>21.61148364112609</v>
       </c>
       <c r="K11" t="n">
-        <v>134.4911159654307</v>
+        <v>124.2112686755653</v>
       </c>
       <c r="L11" t="n">
-        <v>134.4911159654307</v>
+        <v>200.6216653934874</v>
       </c>
       <c r="M11" t="n">
-        <v>134.4911159654307</v>
+        <v>200.6216653934874</v>
       </c>
       <c r="N11" t="n">
-        <v>198.1067658171922</v>
+        <v>264.2373152452489</v>
       </c>
       <c r="O11" t="n">
-        <v>286.3846937712127</v>
+        <v>322.26656937014</v>
       </c>
       <c r="P11" t="n">
-        <v>286.3846937712127</v>
+        <v>322.26656937014</v>
       </c>
       <c r="Q11" t="n">
-        <v>322.2665693701404</v>
+        <v>322.26656937014</v>
       </c>
       <c r="R11" t="n">
-        <v>407.5641212778987</v>
+        <v>407.5641212778983</v>
       </c>
       <c r="S11" t="n">
-        <v>414.5445859977348</v>
+        <v>414.5445859977343</v>
       </c>
       <c r="T11" t="n">
-        <v>398.1773965583677</v>
+        <v>414.5445859977343</v>
       </c>
       <c r="U11" t="n">
-        <v>351.1107961426825</v>
+        <v>367.4779855820491</v>
       </c>
       <c r="V11" t="n">
-        <v>351.1107961426825</v>
+        <v>262.795009319995</v>
       </c>
       <c r="W11" t="n">
-        <v>351.1107961426825</v>
+        <v>158.1120330579409</v>
       </c>
       <c r="X11" t="n">
-        <v>351.1107961426825</v>
+        <v>53.42905679588677</v>
       </c>
       <c r="Y11" t="n">
-        <v>351.1107961426825</v>
+        <v>8.290891719954686</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="C12" t="n">
-        <v>13.31609527252486</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="D12" t="n">
-        <v>70.0082147659748</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="E12" t="n">
-        <v>70.0082147659748</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="F12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="G12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="H12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="I12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="J12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="K12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="L12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="M12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="N12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="O12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="P12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.0082147659748</v>
+        <v>67.33510585294692</v>
       </c>
       <c r="R12" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794875</v>
       </c>
       <c r="S12" t="n">
-        <v>107.6100025794874</v>
+        <v>107.6100025794875</v>
       </c>
       <c r="T12" t="n">
-        <v>107.6100025794874</v>
+        <v>107.6100025794875</v>
       </c>
       <c r="U12" t="n">
-        <v>86.18172037871017</v>
+        <v>86.18172037871025</v>
       </c>
       <c r="V12" t="n">
-        <v>57.80722096488635</v>
+        <v>57.80722096488643</v>
       </c>
       <c r="W12" t="n">
-        <v>10.34747305460361</v>
+        <v>10.34747305460366</v>
       </c>
       <c r="X12" t="n">
-        <v>9.273581666989703</v>
+        <v>9.273581666989724</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.290891719954695</v>
+        <v>32.91996574227904</v>
       </c>
       <c r="C13" t="n">
-        <v>45.37927323475544</v>
+        <v>32.91996574227904</v>
       </c>
       <c r="D13" t="n">
-        <v>45.37927323475544</v>
+        <v>32.91996574227904</v>
       </c>
       <c r="E13" t="n">
-        <v>103.0723846170943</v>
+        <v>90.61307712461783</v>
       </c>
       <c r="F13" t="n">
-        <v>161.7682814768347</v>
+        <v>90.61307712461783</v>
       </c>
       <c r="G13" t="n">
-        <v>161.7682814768347</v>
+        <v>127.1861478115409</v>
       </c>
       <c r="H13" t="n">
-        <v>161.7682814768347</v>
+        <v>171.2124807104288</v>
       </c>
       <c r="I13" t="n">
-        <v>161.7682814768347</v>
+        <v>171.2124807104288</v>
       </c>
       <c r="J13" t="n">
-        <v>254.3589422036727</v>
+        <v>171.2124807104288</v>
       </c>
       <c r="K13" t="n">
-        <v>257.4581523197991</v>
+        <v>171.2124807104288</v>
       </c>
       <c r="L13" t="n">
-        <v>257.4581523197991</v>
+        <v>171.2124807104288</v>
       </c>
       <c r="M13" t="n">
-        <v>257.4581523197991</v>
+        <v>171.2124807104288</v>
       </c>
       <c r="N13" t="n">
-        <v>257.4581523197991</v>
+        <v>171.2124807104288</v>
       </c>
       <c r="O13" t="n">
-        <v>257.4581523197991</v>
+        <v>171.2124807104288</v>
       </c>
       <c r="P13" t="n">
-        <v>257.4581523197991</v>
+        <v>171.2124807104288</v>
       </c>
       <c r="Q13" t="n">
-        <v>257.4581523197991</v>
+        <v>257.4581523197992</v>
       </c>
       <c r="R13" t="n">
-        <v>294.5556413580234</v>
+        <v>294.5556413580236</v>
       </c>
       <c r="S13" t="n">
-        <v>278.990701521234</v>
+        <v>278.9907015212341</v>
       </c>
       <c r="T13" t="n">
-        <v>256.4854547906187</v>
+        <v>256.4854547906189</v>
       </c>
       <c r="U13" t="n">
-        <v>174.064244732674</v>
+        <v>174.0642447326742</v>
       </c>
       <c r="V13" t="n">
         <v>126.1573653447061</v>
       </c>
       <c r="W13" t="n">
-        <v>43.51780412566433</v>
+        <v>43.51780412566438</v>
       </c>
       <c r="X13" t="n">
-        <v>22.3058620455659</v>
+        <v>22.30586204556592</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.1107961426825</v>
+        <v>100.4956572115719</v>
       </c>
       <c r="C14" t="n">
-        <v>246.4278198806282</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="D14" t="n">
-        <v>246.4278198806282</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="E14" t="n">
-        <v>141.7448436185738</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="F14" t="n">
-        <v>141.7448436185738</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="G14" t="n">
-        <v>37.06186735651961</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="H14" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="I14" t="n">
-        <v>21.61148364112612</v>
+        <v>21.61148364112617</v>
       </c>
       <c r="J14" t="n">
-        <v>86.931297993242</v>
+        <v>46.3584824236324</v>
       </c>
       <c r="K14" t="n">
-        <v>134.4911159654307</v>
+        <v>46.3584824236324</v>
       </c>
       <c r="L14" t="n">
-        <v>181.6367292560315</v>
+        <v>93.50409571423323</v>
       </c>
       <c r="M14" t="n">
-        <v>181.6367292560315</v>
+        <v>154.7935053826194</v>
       </c>
       <c r="N14" t="n">
-        <v>245.2523791077929</v>
+        <v>218.4091552343809</v>
       </c>
       <c r="O14" t="n">
-        <v>303.2816332326842</v>
+        <v>321.0089402688202</v>
       </c>
       <c r="P14" t="n">
-        <v>348.0020375731107</v>
+        <v>321.0089402688202</v>
       </c>
       <c r="Q14" t="n">
-        <v>348.0020375731107</v>
+        <v>356.8908158677479</v>
       </c>
       <c r="R14" t="n">
-        <v>407.5641212778987</v>
+        <v>407.5641212778982</v>
       </c>
       <c r="S14" t="n">
-        <v>414.5445859977348</v>
+        <v>414.5445859977343</v>
       </c>
       <c r="T14" t="n">
-        <v>398.1773965583677</v>
+        <v>414.5445859977343</v>
       </c>
       <c r="U14" t="n">
-        <v>351.1107961426825</v>
+        <v>414.5445859977343</v>
       </c>
       <c r="V14" t="n">
-        <v>351.1107961426825</v>
+        <v>414.5445859977343</v>
       </c>
       <c r="W14" t="n">
-        <v>351.1107961426825</v>
+        <v>414.5445859977343</v>
       </c>
       <c r="X14" t="n">
-        <v>351.1107961426825</v>
+        <v>309.8616097356802</v>
       </c>
       <c r="Y14" t="n">
-        <v>351.1107961426825</v>
+        <v>205.1786334736261</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="C15" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="D15" t="n">
-        <v>64.98301121340464</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="E15" t="n">
-        <v>64.98301121340464</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="F15" t="n">
-        <v>64.98301121340464</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="G15" t="n">
-        <v>64.98301121340464</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="H15" t="n">
-        <v>70.0082147659748</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="I15" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="J15" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="K15" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="L15" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="M15" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="N15" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="O15" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="P15" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="R15" t="n">
-        <v>70.0082147659748</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="S15" t="n">
-        <v>107.6100025794874</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="T15" t="n">
-        <v>107.6100025794874</v>
+        <v>107.6100025794871</v>
       </c>
       <c r="U15" t="n">
-        <v>86.18172037871017</v>
+        <v>86.18172037870991</v>
       </c>
       <c r="V15" t="n">
-        <v>57.80722096488635</v>
+        <v>57.80722096488617</v>
       </c>
       <c r="W15" t="n">
-        <v>10.34747305460361</v>
+        <v>10.34747305460349</v>
       </c>
       <c r="X15" t="n">
-        <v>9.273581666989703</v>
+        <v>9.273581666989637</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="C16" t="n">
-        <v>8.290891719954695</v>
+        <v>45.37927323475549</v>
       </c>
       <c r="D16" t="n">
-        <v>8.290891719954695</v>
+        <v>45.37927323475549</v>
       </c>
       <c r="E16" t="n">
-        <v>65.98400310229353</v>
+        <v>99.31088061247436</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98400310229353</v>
+        <v>158.0067774722148</v>
       </c>
       <c r="G16" t="n">
-        <v>65.98400310229353</v>
+        <v>158.0067774722148</v>
       </c>
       <c r="H16" t="n">
-        <v>65.98400310229353</v>
+        <v>202.0331103711027</v>
       </c>
       <c r="I16" t="n">
-        <v>65.98400310229353</v>
+        <v>257.4581523197986</v>
       </c>
       <c r="J16" t="n">
-        <v>65.98400310229353</v>
+        <v>257.4581523197986</v>
       </c>
       <c r="K16" t="n">
-        <v>65.98400310229353</v>
+        <v>257.4581523197986</v>
       </c>
       <c r="L16" t="n">
-        <v>65.98400310229353</v>
+        <v>257.4581523197986</v>
       </c>
       <c r="M16" t="n">
-        <v>65.98400310229353</v>
+        <v>257.4581523197986</v>
       </c>
       <c r="N16" t="n">
-        <v>168.5837881367329</v>
+        <v>257.4581523197986</v>
       </c>
       <c r="O16" t="n">
-        <v>168.5837881367329</v>
+        <v>257.4581523197986</v>
       </c>
       <c r="P16" t="n">
-        <v>223.3431378559251</v>
+        <v>257.4581523197986</v>
       </c>
       <c r="Q16" t="n">
-        <v>294.5556413580234</v>
+        <v>257.4581523197986</v>
       </c>
       <c r="R16" t="n">
-        <v>294.5556413580234</v>
+        <v>294.555641358023</v>
       </c>
       <c r="S16" t="n">
-        <v>278.990701521234</v>
+        <v>278.9907015212336</v>
       </c>
       <c r="T16" t="n">
-        <v>256.4854547906187</v>
+        <v>256.4854547906184</v>
       </c>
       <c r="U16" t="n">
-        <v>174.064244732674</v>
+        <v>174.0642447326738</v>
       </c>
       <c r="V16" t="n">
-        <v>126.1573653447061</v>
+        <v>126.1573653447059</v>
       </c>
       <c r="W16" t="n">
-        <v>43.51780412566433</v>
+        <v>43.51780412566421</v>
       </c>
       <c r="X16" t="n">
-        <v>22.3058620455659</v>
+        <v>22.30586204556583</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.5560540827723</v>
+        <v>262.5560540827718</v>
       </c>
       <c r="C17" t="n">
-        <v>231.3398005564018</v>
+        <v>231.3398005564013</v>
       </c>
       <c r="D17" t="n">
-        <v>210.8203653636924</v>
+        <v>210.820365363692</v>
       </c>
       <c r="E17" t="n">
-        <v>162.7783761794894</v>
+        <v>162.7783761794889</v>
       </c>
       <c r="F17" t="n">
-        <v>89.53873480392303</v>
+        <v>89.53873480392258</v>
       </c>
       <c r="G17" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="H17" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="I17" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="J17" t="n">
-        <v>110.8906767543941</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="K17" t="n">
-        <v>120.5622357399416</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="L17" t="n">
-        <v>120.5622357399416</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="M17" t="n">
-        <v>120.5622357399416</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="N17" t="n">
-        <v>120.5622357399416</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="O17" t="n">
-        <v>120.5622357399416</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="P17" t="n">
-        <v>120.5622357399416</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.5622357399416</v>
+        <v>17.96245070550205</v>
       </c>
       <c r="R17" t="n">
-        <v>120.5622357399416</v>
+        <v>120.5622357399413</v>
       </c>
       <c r="S17" t="n">
-        <v>223.162020774381</v>
+        <v>223.1620207743805</v>
       </c>
       <c r="T17" t="n">
-        <v>325.7618058088203</v>
+        <v>325.7618058088198</v>
       </c>
       <c r="U17" t="n">
-        <v>407.9942091110667</v>
+        <v>407.9942091110661</v>
       </c>
       <c r="V17" t="n">
-        <v>414.5445859977348</v>
+        <v>414.5445859977343</v>
       </c>
       <c r="W17" t="n">
-        <v>399.5221941416621</v>
+        <v>399.5221941416614</v>
       </c>
       <c r="X17" t="n">
-        <v>363.8026992946235</v>
+        <v>363.8026992946229</v>
       </c>
       <c r="Y17" t="n">
-        <v>311.409630732853</v>
+        <v>311.4096307328524</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="C18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="D18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="E18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="F18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="G18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="H18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="I18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="J18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="K18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="L18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="M18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="N18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="O18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="P18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="R18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="S18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="T18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="U18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="V18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="W18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="X18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="C19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="D19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="E19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="F19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="G19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="H19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="I19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="J19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="K19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="L19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="M19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="N19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="O19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="P19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="R19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="S19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="T19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="U19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="V19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="W19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="X19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954686</v>
       </c>
     </row>
     <row r="20">
@@ -5738,64 +5738,64 @@
         <v>162.7783761794893</v>
       </c>
       <c r="F20" t="n">
-        <v>89.53873480392276</v>
+        <v>89.53873480392275</v>
       </c>
       <c r="G20" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="H20" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="I20" t="n">
-        <v>110.8906767543941</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="J20" t="n">
-        <v>110.8906767543941</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="K20" t="n">
-        <v>110.8906767543941</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="L20" t="n">
-        <v>110.8906767543941</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="M20" t="n">
-        <v>110.8906767543941</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="N20" t="n">
-        <v>110.8906767543941</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="O20" t="n">
-        <v>110.8906767543941</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="P20" t="n">
-        <v>110.8906767543941</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="Q20" t="n">
-        <v>213.4904617888334</v>
+        <v>110.8906767543939</v>
       </c>
       <c r="R20" t="n">
-        <v>316.0902468232728</v>
+        <v>120.5622357399412</v>
       </c>
       <c r="S20" t="n">
-        <v>407.9942091110665</v>
+        <v>223.1620207743804</v>
       </c>
       <c r="T20" t="n">
-        <v>407.9942091110665</v>
+        <v>325.7618058088197</v>
       </c>
       <c r="U20" t="n">
-        <v>407.9942091110665</v>
+        <v>407.9942091110661</v>
       </c>
       <c r="V20" t="n">
-        <v>414.5445859977348</v>
+        <v>414.5445859977344</v>
       </c>
       <c r="W20" t="n">
-        <v>399.5221941416616</v>
+        <v>399.5221941416615</v>
       </c>
       <c r="X20" t="n">
-        <v>363.802699294623</v>
+        <v>363.8026992946229</v>
       </c>
       <c r="Y20" t="n">
-        <v>311.4096307328525</v>
+        <v>311.4096307328524</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="C21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="D21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="E21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="F21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="G21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="H21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="I21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="J21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="K21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="L21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="M21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="N21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="O21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="P21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="R21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="S21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="T21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="U21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="V21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="W21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="X21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="C22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="D22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="E22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="F22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="G22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="H22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="I22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="J22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="K22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="L22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="M22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="N22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="O22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="P22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="R22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="S22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="T22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="U22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="V22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="W22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="X22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954688</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.5560540827723</v>
+        <v>262.5560540827717</v>
       </c>
       <c r="C23" t="n">
-        <v>231.3398005564018</v>
+        <v>231.3398005564013</v>
       </c>
       <c r="D23" t="n">
-        <v>210.8203653636926</v>
+        <v>210.8203653636921</v>
       </c>
       <c r="E23" t="n">
-        <v>162.7783761794896</v>
+        <v>162.7783761794894</v>
       </c>
       <c r="F23" t="n">
-        <v>89.53873480392276</v>
+        <v>89.53873480392309</v>
       </c>
       <c r="G23" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="H23" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I23" t="n">
-        <v>8.290891719954695</v>
+        <v>110.8906767543938</v>
       </c>
       <c r="J23" t="n">
-        <v>8.290891719954695</v>
+        <v>213.490461788833</v>
       </c>
       <c r="K23" t="n">
-        <v>8.290891719954695</v>
+        <v>213.490461788833</v>
       </c>
       <c r="L23" t="n">
-        <v>8.290891719954695</v>
+        <v>213.490461788833</v>
       </c>
       <c r="M23" t="n">
-        <v>8.290891719954695</v>
+        <v>213.490461788833</v>
       </c>
       <c r="N23" t="n">
-        <v>8.290891719954695</v>
+        <v>213.490461788833</v>
       </c>
       <c r="O23" t="n">
-        <v>8.290891719954695</v>
+        <v>213.490461788833</v>
       </c>
       <c r="P23" t="n">
-        <v>8.290891719954695</v>
+        <v>213.490461788833</v>
       </c>
       <c r="Q23" t="n">
-        <v>17.96245070550205</v>
+        <v>213.490461788833</v>
       </c>
       <c r="R23" t="n">
-        <v>120.5622357399414</v>
+        <v>213.490461788833</v>
       </c>
       <c r="S23" t="n">
-        <v>223.1620207743807</v>
+        <v>223.1620207743801</v>
       </c>
       <c r="T23" t="n">
-        <v>325.7618058088201</v>
+        <v>325.7618058088192</v>
       </c>
       <c r="U23" t="n">
-        <v>407.9942091110665</v>
+        <v>407.9942091110657</v>
       </c>
       <c r="V23" t="n">
-        <v>414.5445859977348</v>
+        <v>414.5445859977339</v>
       </c>
       <c r="W23" t="n">
-        <v>399.5221941416619</v>
+        <v>399.5221941416611</v>
       </c>
       <c r="X23" t="n">
-        <v>363.8026992946233</v>
+        <v>363.8026992946226</v>
       </c>
       <c r="Y23" t="n">
-        <v>311.4096307328528</v>
+        <v>311.4096307328522</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="C24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="D24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="E24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="F24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="G24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="H24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="J24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="K24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="L24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="M24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="N24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="O24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="P24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="R24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="S24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="T24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="U24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="V24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="W24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="X24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="C25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="D25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="E25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="F25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="G25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="H25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="I25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="J25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="K25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="L25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="M25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="N25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="O25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="P25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="R25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="S25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="T25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="U25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="V25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="W25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="X25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.290891719954695</v>
+        <v>8.290891719954679</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1317.975912536807</v>
+        <v>1317.975912536809</v>
       </c>
       <c r="C26" t="n">
-        <v>1121.153971202702</v>
+        <v>1121.153971202704</v>
       </c>
       <c r="D26" t="n">
-        <v>935.028848202257</v>
+        <v>935.028848202259</v>
       </c>
       <c r="E26" t="n">
-        <v>721.3811712103188</v>
+        <v>721.3811712103206</v>
       </c>
       <c r="F26" t="n">
-        <v>482.5358420270172</v>
+        <v>482.5358420270189</v>
       </c>
       <c r="G26" t="n">
-        <v>235.6823111353149</v>
+        <v>235.6823111353155</v>
       </c>
       <c r="H26" t="n">
-        <v>70.07662332757968</v>
+        <v>70.07662332757984</v>
       </c>
       <c r="I26" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="J26" t="n">
-        <v>247.8083511313891</v>
+        <v>247.808351131389</v>
       </c>
       <c r="K26" t="n">
-        <v>582.3243712983292</v>
+        <v>413.6093931465886</v>
       </c>
       <c r="L26" t="n">
-        <v>840.2918525914336</v>
+        <v>840.2918525914333</v>
       </c>
       <c r="M26" t="n">
-        <v>1312.651904167022</v>
+        <v>1163.70302760153</v>
       </c>
       <c r="N26" t="n">
-        <v>1677.694172027508</v>
+        <v>1626.344376370454</v>
       </c>
       <c r="O26" t="n">
-        <v>1910.052871200074</v>
+        <v>2027.418053694761</v>
       </c>
       <c r="P26" t="n">
-        <v>2239.406240379567</v>
+        <v>2188.056444722513</v>
       </c>
       <c r="Q26" t="n">
-        <v>2451.532200481099</v>
+        <v>2400.182404824044</v>
       </c>
       <c r="R26" t="n">
-        <v>2451.532200481099</v>
+        <v>2451.532200481101</v>
       </c>
       <c r="S26" t="n">
-        <v>2424.017363698254</v>
+        <v>2424.017363698256</v>
       </c>
       <c r="T26" t="n">
-        <v>2373.013141047275</v>
+        <v>2373.013141047276</v>
       </c>
       <c r="U26" t="n">
-        <v>2291.309507419975</v>
+        <v>2291.309507419978</v>
       </c>
       <c r="V26" t="n">
-        <v>2132.387195682711</v>
+        <v>2132.387195682713</v>
       </c>
       <c r="W26" t="n">
-        <v>1951.759116018903</v>
+        <v>1951.759116018905</v>
       </c>
       <c r="X26" t="n">
-        <v>1750.433933364129</v>
+        <v>1750.433933364131</v>
       </c>
       <c r="Y26" t="n">
-        <v>1532.435176994623</v>
+        <v>1532.435176994625</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.34309768444297</v>
+        <v>51.34309768444312</v>
       </c>
       <c r="C27" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="D27" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="E27" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="F27" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="G27" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="H27" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="I27" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="J27" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="K27" t="n">
-        <v>119.7338405387215</v>
+        <v>65.50264702736263</v>
       </c>
       <c r="L27" t="n">
-        <v>119.7338405387215</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="M27" t="n">
-        <v>119.7338405387215</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="N27" t="n">
-        <v>119.7338405387215</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="O27" t="n">
-        <v>119.7338405387215</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="P27" t="n">
-        <v>352.8073044318556</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="Q27" t="n">
-        <v>352.8073044318556</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="R27" t="n">
-        <v>352.8073044318556</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="S27" t="n">
-        <v>352.8073044318556</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="T27" t="n">
-        <v>323.8473746020401</v>
+        <v>323.8473746020408</v>
       </c>
       <c r="U27" t="n">
-        <v>267.7820591896499</v>
+        <v>267.7820591896506</v>
       </c>
       <c r="V27" t="n">
-        <v>204.7705265642133</v>
+        <v>204.7705265642138</v>
       </c>
       <c r="W27" t="n">
-        <v>122.6737454423177</v>
+        <v>122.673745442318</v>
       </c>
       <c r="X27" t="n">
-        <v>86.96282084309087</v>
+        <v>86.96282084309112</v>
       </c>
       <c r="Y27" t="n">
-        <v>51.34309768444297</v>
+        <v>51.34309768444312</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="C28" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="D28" t="n">
-        <v>70.61630387333227</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="E28" t="n">
-        <v>94.36165900496931</v>
+        <v>72.77599914125894</v>
       </c>
       <c r="F28" t="n">
-        <v>119.1097996140079</v>
+        <v>97.52413975029741</v>
       </c>
       <c r="G28" t="n">
-        <v>119.1097996140079</v>
+        <v>97.52413975029741</v>
       </c>
       <c r="H28" t="n">
-        <v>119.1097996140079</v>
+        <v>97.52413975029741</v>
       </c>
       <c r="I28" t="n">
-        <v>119.1097996140079</v>
+        <v>97.52413975029741</v>
       </c>
       <c r="J28" t="n">
-        <v>211.0525829996402</v>
+        <v>180.2375573691835</v>
       </c>
       <c r="K28" t="n">
-        <v>211.0525829996402</v>
+        <v>180.2375573691835</v>
       </c>
       <c r="L28" t="n">
-        <v>271.2837194650942</v>
+        <v>180.2375573691835</v>
       </c>
       <c r="M28" t="n">
-        <v>337.1685447853249</v>
+        <v>180.2375573691835</v>
       </c>
       <c r="N28" t="n">
-        <v>413.3559672091441</v>
+        <v>426.5245194690198</v>
       </c>
       <c r="O28" t="n">
-        <v>485.308239307544</v>
+        <v>482.1585065200227</v>
       </c>
       <c r="P28" t="n">
-        <v>485.308239307544</v>
+        <v>482.1585065200227</v>
       </c>
       <c r="Q28" t="n">
-        <v>587.2625153529145</v>
+        <v>584.1127825653931</v>
       </c>
       <c r="R28" t="n">
-        <v>587.2625153529145</v>
+        <v>587.2625153529156</v>
       </c>
       <c r="S28" t="n">
-        <v>537.0605423045122</v>
+        <v>537.0605423045131</v>
       </c>
       <c r="T28" t="n">
-        <v>479.9182623622841</v>
+        <v>479.9182623622848</v>
       </c>
       <c r="U28" t="n">
-        <v>362.8600190927265</v>
+        <v>362.8600190927272</v>
       </c>
       <c r="V28" t="n">
-        <v>280.3161064931456</v>
+        <v>280.3161064931462</v>
       </c>
       <c r="W28" t="n">
-        <v>163.0395120624911</v>
+        <v>163.0395120624914</v>
       </c>
       <c r="X28" t="n">
-        <v>107.1905367707797</v>
+        <v>107.19053677078</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.53853323355565</v>
+        <v>58.53853323355581</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1317.975912536808</v>
+        <v>1317.97591253681</v>
       </c>
       <c r="C29" t="n">
-        <v>1121.153971202702</v>
+        <v>1121.153971202704</v>
       </c>
       <c r="D29" t="n">
-        <v>935.0288482022577</v>
+        <v>935.0288482022593</v>
       </c>
       <c r="E29" t="n">
-        <v>721.3811712103195</v>
+        <v>721.381171210321</v>
       </c>
       <c r="F29" t="n">
-        <v>482.5358420270179</v>
+        <v>482.5358420270193</v>
       </c>
       <c r="G29" t="n">
-        <v>235.6823111353146</v>
+        <v>235.6823111353155</v>
       </c>
       <c r="H29" t="n">
-        <v>70.07662332757968</v>
+        <v>70.07662332757981</v>
       </c>
       <c r="I29" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="J29" t="n">
-        <v>247.8083511313891</v>
+        <v>80.40270211103601</v>
       </c>
       <c r="K29" t="n">
-        <v>582.3243712983292</v>
+        <v>414.9187222779759</v>
       </c>
       <c r="L29" t="n">
-        <v>1009.006830743174</v>
+        <v>672.8862035710803</v>
       </c>
       <c r="M29" t="n">
-        <v>1312.651904167022</v>
+        <v>1145.246255146669</v>
       </c>
       <c r="N29" t="n">
-        <v>1626.34437637045</v>
+        <v>1607.887603915593</v>
       </c>
       <c r="O29" t="n">
-        <v>1858.703075543017</v>
+        <v>2008.9612812399</v>
       </c>
       <c r="P29" t="n">
-        <v>2188.05644472251</v>
+        <v>2218.075426269089</v>
       </c>
       <c r="Q29" t="n">
-        <v>2400.182404824041</v>
+        <v>2430.20138637062</v>
       </c>
       <c r="R29" t="n">
-        <v>2451.532200481098</v>
+        <v>2451.532200481101</v>
       </c>
       <c r="S29" t="n">
-        <v>2424.017363698254</v>
+        <v>2424.017363698256</v>
       </c>
       <c r="T29" t="n">
-        <v>2373.013141047274</v>
+        <v>2373.013141047276</v>
       </c>
       <c r="U29" t="n">
-        <v>2291.309507419976</v>
+        <v>2291.309507419978</v>
       </c>
       <c r="V29" t="n">
-        <v>2132.387195682712</v>
+        <v>2132.387195682713</v>
       </c>
       <c r="W29" t="n">
-        <v>1951.759116018904</v>
+        <v>1951.759116018905</v>
       </c>
       <c r="X29" t="n">
-        <v>1750.43393336413</v>
+        <v>1750.433933364131</v>
       </c>
       <c r="Y29" t="n">
-        <v>1532.435176994624</v>
+        <v>1532.435176994625</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>52.87777034799382</v>
+        <v>51.34309768444309</v>
       </c>
       <c r="C30" t="n">
-        <v>50.56531667317282</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="D30" t="n">
-        <v>50.56531667317282</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="E30" t="n">
-        <v>50.56531667317282</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="F30" t="n">
-        <v>50.56531667317282</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="G30" t="n">
-        <v>50.56531667317282</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="H30" t="n">
-        <v>50.56531667317282</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="I30" t="n">
-        <v>50.56531667317282</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="J30" t="n">
-        <v>50.56531667317282</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="K30" t="n">
-        <v>218.5679409246521</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="L30" t="n">
-        <v>247.389181933475</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="M30" t="n">
-        <v>247.389181933475</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="N30" t="n">
-        <v>247.389181933475</v>
+        <v>352.8073044318563</v>
       </c>
       <c r="O30" t="n">
-        <v>247.389181933475</v>
+        <v>352.8073044318563</v>
       </c>
       <c r="P30" t="n">
-        <v>247.389181933475</v>
+        <v>352.8073044318563</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.4948507570347</v>
+        <v>352.8073044318563</v>
       </c>
       <c r="R30" t="n">
-        <v>350.4948507570347</v>
+        <v>352.8073044318563</v>
       </c>
       <c r="S30" t="n">
-        <v>350.4948507570347</v>
+        <v>352.8073044318563</v>
       </c>
       <c r="T30" t="n">
-        <v>321.5349209272191</v>
+        <v>323.8473746020406</v>
       </c>
       <c r="U30" t="n">
-        <v>265.469605514829</v>
+        <v>267.7820591896504</v>
       </c>
       <c r="V30" t="n">
-        <v>202.4580728893923</v>
+        <v>204.7705265642136</v>
       </c>
       <c r="W30" t="n">
-        <v>120.3612917674967</v>
+        <v>122.6737454423179</v>
       </c>
       <c r="X30" t="n">
-        <v>84.65036716826985</v>
+        <v>86.96282084309107</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.03064400962197</v>
+        <v>51.34309768444309</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="C31" t="n">
-        <v>52.17126927372093</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="D31" t="n">
-        <v>73.75692913743123</v>
+        <v>70.61630387333221</v>
       </c>
       <c r="E31" t="n">
-        <v>97.50228426906827</v>
+        <v>94.36165900496917</v>
       </c>
       <c r="F31" t="n">
-        <v>122.2504248781069</v>
+        <v>119.1097996140077</v>
       </c>
       <c r="G31" t="n">
-        <v>124.8757393143282</v>
+        <v>121.7351140502289</v>
       </c>
       <c r="H31" t="n">
-        <v>134.9543159625143</v>
+        <v>121.7351140502289</v>
       </c>
       <c r="I31" t="n">
-        <v>156.4316016605083</v>
+        <v>143.2123997482229</v>
       </c>
       <c r="J31" t="n">
-        <v>248.3743850461406</v>
+        <v>235.1551831338551</v>
       </c>
       <c r="K31" t="n">
-        <v>248.3743850461406</v>
+        <v>238.8317203603836</v>
       </c>
       <c r="L31" t="n">
-        <v>308.6055215115946</v>
+        <v>238.8317203603836</v>
       </c>
       <c r="M31" t="n">
-        <v>308.6055215115946</v>
+        <v>312.7261318292249</v>
       </c>
       <c r="N31" t="n">
-        <v>386.1775054596906</v>
+        <v>390.2981157773208</v>
       </c>
       <c r="O31" t="n">
-        <v>441.8114925106934</v>
+        <v>587.2625153529152</v>
       </c>
       <c r="P31" t="n">
-        <v>584.112782565392</v>
+        <v>587.2625153529152</v>
       </c>
       <c r="Q31" t="n">
-        <v>584.112782565392</v>
+        <v>587.2625153529152</v>
       </c>
       <c r="R31" t="n">
-        <v>587.2625153529145</v>
+        <v>587.2625153529152</v>
       </c>
       <c r="S31" t="n">
-        <v>537.0605423045122</v>
+        <v>537.0605423045128</v>
       </c>
       <c r="T31" t="n">
-        <v>479.9182623622841</v>
+        <v>479.9182623622846</v>
       </c>
       <c r="U31" t="n">
-        <v>362.8600190927265</v>
+        <v>362.860019092727</v>
       </c>
       <c r="V31" t="n">
-        <v>280.3161064931456</v>
+        <v>280.316106493146</v>
       </c>
       <c r="W31" t="n">
-        <v>163.039512062491</v>
+        <v>163.0395120624914</v>
       </c>
       <c r="X31" t="n">
-        <v>107.1905367707797</v>
+        <v>107.1905367707799</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.53853323355565</v>
+        <v>58.53853323355577</v>
       </c>
     </row>
     <row r="32">
@@ -6680,64 +6680,64 @@
         <v>1121.153971202702</v>
       </c>
       <c r="D32" t="n">
-        <v>935.028848202258</v>
+        <v>935.0288482022578</v>
       </c>
       <c r="E32" t="n">
-        <v>721.3811712103197</v>
+        <v>721.3811712103195</v>
       </c>
       <c r="F32" t="n">
-        <v>482.5358420270184</v>
+        <v>482.5358420270179</v>
       </c>
       <c r="G32" t="n">
-        <v>235.6823111353151</v>
+        <v>235.6823111353152</v>
       </c>
       <c r="H32" t="n">
-        <v>70.07662332757968</v>
+        <v>70.07662332757984</v>
       </c>
       <c r="I32" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="J32" t="n">
-        <v>247.8083511313891</v>
+        <v>247.808351131389</v>
       </c>
       <c r="K32" t="n">
-        <v>582.3243712983292</v>
+        <v>429.7341765980684</v>
       </c>
       <c r="L32" t="n">
-        <v>1009.006830743174</v>
+        <v>856.4166360429132</v>
       </c>
       <c r="M32" t="n">
-        <v>1383.767801410324</v>
+        <v>1328.776687618502</v>
       </c>
       <c r="N32" t="n">
-        <v>1677.694172027507</v>
+        <v>1622.703058235685</v>
       </c>
       <c r="O32" t="n">
-        <v>2078.767849351814</v>
+        <v>2023.776735559992</v>
       </c>
       <c r="P32" t="n">
-        <v>2408.121218531307</v>
+        <v>2188.056444722513</v>
       </c>
       <c r="Q32" t="n">
-        <v>2451.532200481098</v>
+        <v>2400.182404824044</v>
       </c>
       <c r="R32" t="n">
-        <v>2451.532200481098</v>
+        <v>2451.532200481101</v>
       </c>
       <c r="S32" t="n">
-        <v>2424.017363698254</v>
+        <v>2424.017363698256</v>
       </c>
       <c r="T32" t="n">
-        <v>2373.013141047274</v>
+        <v>2373.013141047276</v>
       </c>
       <c r="U32" t="n">
-        <v>2291.309507419976</v>
+        <v>2291.309507419977</v>
       </c>
       <c r="V32" t="n">
         <v>2132.387195682712</v>
       </c>
       <c r="W32" t="n">
-        <v>1951.759116018903</v>
+        <v>1951.759116018904</v>
       </c>
       <c r="X32" t="n">
         <v>1750.43393336413</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.34309768444297</v>
+        <v>51.34309768444312</v>
       </c>
       <c r="C33" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="D33" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="E33" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="F33" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="G33" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="H33" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="I33" t="n">
-        <v>49.03064400962197</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="J33" t="n">
-        <v>49.03064400962197</v>
+        <v>73.24241975085548</v>
       </c>
       <c r="K33" t="n">
-        <v>119.7338405387215</v>
+        <v>241.2450440023347</v>
       </c>
       <c r="L33" t="n">
-        <v>119.7338405387215</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="M33" t="n">
-        <v>119.7338405387215</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="N33" t="n">
-        <v>119.7338405387215</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="O33" t="n">
-        <v>119.7338405387215</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="P33" t="n">
-        <v>352.8073044318556</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="Q33" t="n">
-        <v>352.8073044318556</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="R33" t="n">
-        <v>352.8073044318556</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="S33" t="n">
-        <v>352.8073044318556</v>
+        <v>352.8073044318565</v>
       </c>
       <c r="T33" t="n">
-        <v>323.8473746020401</v>
+        <v>323.8473746020408</v>
       </c>
       <c r="U33" t="n">
-        <v>267.7820591896499</v>
+        <v>267.7820591896506</v>
       </c>
       <c r="V33" t="n">
-        <v>204.7705265642133</v>
+        <v>204.7705265642138</v>
       </c>
       <c r="W33" t="n">
-        <v>122.6737454423177</v>
+        <v>122.673745442318</v>
       </c>
       <c r="X33" t="n">
-        <v>86.96282084309085</v>
+        <v>86.96282084309112</v>
       </c>
       <c r="Y33" t="n">
-        <v>51.34309768444297</v>
+        <v>51.34309768444312</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1913.300329137806</v>
+        <v>49.03064400962201</v>
       </c>
       <c r="C34" t="n">
-        <v>1913.300329137806</v>
+        <v>52.17126927372086</v>
       </c>
       <c r="D34" t="n">
-        <v>1913.300329137806</v>
+        <v>73.75692913743103</v>
       </c>
       <c r="E34" t="n">
-        <v>1913.300329137806</v>
+        <v>97.50228426906796</v>
       </c>
       <c r="F34" t="n">
-        <v>1938.048469746845</v>
+        <v>122.2504248781064</v>
       </c>
       <c r="G34" t="n">
-        <v>1940.673784183066</v>
+        <v>124.8757393143277</v>
       </c>
       <c r="H34" t="n">
-        <v>1940.673784183066</v>
+        <v>124.8757393143277</v>
       </c>
       <c r="I34" t="n">
-        <v>1940.673784183066</v>
+        <v>146.3530250123216</v>
       </c>
       <c r="J34" t="n">
-        <v>2032.616567568698</v>
+        <v>146.3530250123216</v>
       </c>
       <c r="K34" t="n">
-        <v>2099.331754265761</v>
+        <v>146.3530250123216</v>
       </c>
       <c r="L34" t="n">
-        <v>2167.427914356817</v>
+        <v>375.299139629516</v>
       </c>
       <c r="M34" t="n">
-        <v>2167.427914356817</v>
+        <v>375.299139629516</v>
       </c>
       <c r="N34" t="n">
-        <v>2355.125167997355</v>
+        <v>375.299139629516</v>
       </c>
       <c r="O34" t="n">
-        <v>2355.125167997355</v>
+        <v>394.4637324396688</v>
       </c>
       <c r="P34" t="n">
-        <v>2414.267453229701</v>
+        <v>587.2625153529156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2451.532200481098</v>
+        <v>587.2625153529156</v>
       </c>
       <c r="R34" t="n">
-        <v>2451.532200481098</v>
+        <v>587.2625153529156</v>
       </c>
       <c r="S34" t="n">
-        <v>2401.330227432696</v>
+        <v>537.0605423045131</v>
       </c>
       <c r="T34" t="n">
-        <v>2344.187947490468</v>
+        <v>479.9182623622848</v>
       </c>
       <c r="U34" t="n">
-        <v>2227.129704220911</v>
+        <v>362.8600190927272</v>
       </c>
       <c r="V34" t="n">
-        <v>2144.58579162133</v>
+        <v>280.3161064931462</v>
       </c>
       <c r="W34" t="n">
-        <v>2027.309197190675</v>
+        <v>163.0395120624914</v>
       </c>
       <c r="X34" t="n">
-        <v>1971.460221898964</v>
+        <v>107.19053677078</v>
       </c>
       <c r="Y34" t="n">
-        <v>1922.80821836174</v>
+        <v>58.53853323355581</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1123.550020801829</v>
+        <v>1123.55002080183</v>
       </c>
       <c r="C35" t="n">
-        <v>954.2429162505675</v>
+        <v>954.2429162505691</v>
       </c>
       <c r="D35" t="n">
-        <v>795.6326300329674</v>
+        <v>795.632630032969</v>
       </c>
       <c r="E35" t="n">
-        <v>609.4997898238737</v>
+        <v>609.4997898238751</v>
       </c>
       <c r="F35" t="n">
-        <v>398.1692974234165</v>
+        <v>398.1692974234179</v>
       </c>
       <c r="G35" t="n">
-        <v>178.8306033145581</v>
+        <v>178.8306033145583</v>
       </c>
       <c r="H35" t="n">
-        <v>40.73975228966727</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="I35" t="n">
-        <v>47.07987949100274</v>
+        <v>47.07987949100268</v>
       </c>
       <c r="J35" t="n">
-        <v>216.2261199076874</v>
+        <v>248.0201831857269</v>
       </c>
       <c r="K35" t="n">
-        <v>382.0271619228869</v>
+        <v>288.5995364380796</v>
       </c>
       <c r="L35" t="n">
-        <v>835.6769128985976</v>
+        <v>742.2492874137902</v>
       </c>
       <c r="M35" t="n">
-        <v>1139.321986322446</v>
+        <v>1235.121092997657</v>
       </c>
       <c r="N35" t="n">
-        <v>1195.957171454371</v>
+        <v>1529.047463614841</v>
       </c>
       <c r="O35" t="n">
-        <v>1623.998140309544</v>
+        <v>1957.088432470014</v>
       </c>
       <c r="P35" t="n">
-        <v>1980.318801019903</v>
+        <v>1994.828372090604</v>
       </c>
       <c r="Q35" t="n">
-        <v>2023.729782969694</v>
+        <v>2023.729782969696</v>
       </c>
       <c r="R35" t="n">
-        <v>2036.987614483363</v>
+        <v>2036.987614483366</v>
       </c>
       <c r="S35" t="n">
-        <v>2036.987614483363</v>
+        <v>2036.987614483366</v>
       </c>
       <c r="T35" t="n">
-        <v>2013.498228615228</v>
+        <v>2013.49822861523</v>
       </c>
       <c r="U35" t="n">
-        <v>1959.309431770775</v>
+        <v>1959.309431770777</v>
       </c>
       <c r="V35" t="n">
-        <v>1827.901956816354</v>
+        <v>1827.901956816356</v>
       </c>
       <c r="W35" t="n">
-        <v>1674.788713935391</v>
+        <v>1674.788713935393</v>
       </c>
       <c r="X35" t="n">
-        <v>1500.978368063461</v>
+        <v>1500.978368063463</v>
       </c>
       <c r="Y35" t="n">
-        <v>1310.4944484768</v>
+        <v>1310.494448476802</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>40.73975228966727</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="C36" t="n">
-        <v>40.73975228966727</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="D36" t="n">
-        <v>40.73975228966727</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="E36" t="n">
-        <v>40.73975228966727</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="F36" t="n">
-        <v>92.80350170282358</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="G36" t="n">
-        <v>152.7797813795143</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="H36" t="n">
-        <v>152.7797813795143</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="I36" t="n">
-        <v>152.7797813795143</v>
+        <v>64.19205539377113</v>
       </c>
       <c r="J36" t="n">
-        <v>152.7797813795143</v>
+        <v>64.19205539377113</v>
       </c>
       <c r="K36" t="n">
-        <v>152.7797813795143</v>
+        <v>64.19205539377113</v>
       </c>
       <c r="L36" t="n">
-        <v>152.7797813795143</v>
+        <v>64.19205539377113</v>
       </c>
       <c r="M36" t="n">
-        <v>152.7797813795143</v>
+        <v>64.19205539377113</v>
       </c>
       <c r="N36" t="n">
-        <v>152.7797813795143</v>
+        <v>64.19205539377113</v>
       </c>
       <c r="O36" t="n">
-        <v>152.7797813795143</v>
+        <v>64.19205539377113</v>
       </c>
       <c r="P36" t="n">
-        <v>152.7797813795143</v>
+        <v>64.19205539377113</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.7797813795143</v>
+        <v>64.19205539377113</v>
       </c>
       <c r="R36" t="n">
-        <v>152.7797813795143</v>
+        <v>177.114938340014</v>
       </c>
       <c r="S36" t="n">
-        <v>177.1149383400133</v>
+        <v>177.114938340014</v>
       </c>
       <c r="T36" t="n">
-        <v>175.6698452930422</v>
+        <v>175.6698452930428</v>
       </c>
       <c r="U36" t="n">
-        <v>147.1193666634965</v>
+        <v>147.119366663497</v>
       </c>
       <c r="V36" t="n">
-        <v>111.6226708209043</v>
+        <v>111.6226708209046</v>
       </c>
       <c r="W36" t="n">
-        <v>57.04072648185308</v>
+        <v>57.04072648185335</v>
       </c>
       <c r="X36" t="n">
-        <v>48.84463866547072</v>
+        <v>48.84463866547088</v>
       </c>
       <c r="Y36" t="n">
-        <v>40.73975228966727</v>
+        <v>40.73975228966732</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.73975228966727</v>
+        <v>58.38836159215563</v>
       </c>
       <c r="C37" t="n">
-        <v>40.73975228966727</v>
+        <v>88.49627838712031</v>
       </c>
       <c r="D37" t="n">
-        <v>40.73975228966727</v>
+        <v>137.0492297816963</v>
       </c>
       <c r="E37" t="n">
-        <v>40.73975228966727</v>
+        <v>187.7618764441991</v>
       </c>
       <c r="F37" t="n">
-        <v>92.45518442957169</v>
+        <v>239.4773085841034</v>
       </c>
       <c r="G37" t="n">
-        <v>122.0477903966589</v>
+        <v>269.0699145511904</v>
       </c>
       <c r="H37" t="n">
-        <v>122.0477903966589</v>
+        <v>306.1157827302422</v>
       </c>
       <c r="I37" t="n">
-        <v>122.0477903966589</v>
+        <v>354.560359959102</v>
       </c>
       <c r="J37" t="n">
-        <v>217.8212850344903</v>
+        <v>354.560359959102</v>
       </c>
       <c r="K37" t="n">
-        <v>217.8212850344903</v>
+        <v>358.2368971856305</v>
       </c>
       <c r="L37" t="n">
-        <v>217.8212850344903</v>
+        <v>358.2368971856305</v>
       </c>
       <c r="M37" t="n">
-        <v>217.8212850344903</v>
+        <v>358.2368971856305</v>
       </c>
       <c r="N37" t="n">
-        <v>217.8212850344903</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="O37" t="n">
-        <v>217.8212850344903</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="P37" t="n">
-        <v>217.8212850344903</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="Q37" t="n">
-        <v>346.7428526107266</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="R37" t="n">
-        <v>376.859876929115</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="S37" t="n">
-        <v>354.1727406635571</v>
+        <v>354.1727406635579</v>
       </c>
       <c r="T37" t="n">
-        <v>324.5452975041735</v>
+        <v>324.5452975041741</v>
       </c>
       <c r="U37" t="n">
-        <v>235.0018910174604</v>
+        <v>235.0018910174609</v>
       </c>
       <c r="V37" t="n">
-        <v>179.972815200724</v>
+        <v>179.9728152007244</v>
       </c>
       <c r="W37" t="n">
-        <v>90.2110575529138</v>
+        <v>90.21105755291407</v>
       </c>
       <c r="X37" t="n">
-        <v>61.87691904404691</v>
+        <v>61.87691904404707</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.73975228966727</v>
+        <v>40.73975228966732</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1123.550020801829</v>
+        <v>1123.55002080183</v>
       </c>
       <c r="C38" t="n">
-        <v>954.2429162505679</v>
+        <v>954.2429162505687</v>
       </c>
       <c r="D38" t="n">
-        <v>795.6326300329679</v>
+        <v>795.6326300329686</v>
       </c>
       <c r="E38" t="n">
-        <v>609.4997898238744</v>
+        <v>609.4997898238746</v>
       </c>
       <c r="F38" t="n">
         <v>398.1692974234174</v>
       </c>
       <c r="G38" t="n">
-        <v>178.8306033145581</v>
+        <v>178.8306033145583</v>
       </c>
       <c r="H38" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="I38" t="n">
-        <v>47.0798794910028</v>
+        <v>47.07987949100268</v>
       </c>
       <c r="J38" t="n">
-        <v>105.4192291232827</v>
+        <v>272.8248781436355</v>
       </c>
       <c r="K38" t="n">
-        <v>226.1572378146903</v>
+        <v>546.8407452604444</v>
       </c>
       <c r="L38" t="n">
-        <v>679.8069887904011</v>
+        <v>587.0058938312091</v>
       </c>
       <c r="M38" t="n">
-        <v>734.1159337389513</v>
+        <v>1086.333236937663</v>
       </c>
       <c r="N38" t="n">
-        <v>1223.724574038741</v>
+        <v>1130.897915780121</v>
       </c>
       <c r="O38" t="n">
-        <v>1651.765542893914</v>
+        <v>1363.256614952688</v>
       </c>
       <c r="P38" t="n">
-        <v>2008.086203604273</v>
+        <v>1719.577275663046</v>
       </c>
       <c r="Q38" t="n">
-        <v>2036.987614483365</v>
+        <v>1958.670527295443</v>
       </c>
       <c r="R38" t="n">
-        <v>2036.987614483365</v>
+        <v>2036.987614483366</v>
       </c>
       <c r="S38" t="n">
-        <v>2036.987614483365</v>
+        <v>2036.987614483366</v>
       </c>
       <c r="T38" t="n">
-        <v>2013.498228615229</v>
+        <v>2013.49822861523</v>
       </c>
       <c r="U38" t="n">
-        <v>1959.309431770775</v>
+        <v>1959.309431770776</v>
       </c>
       <c r="V38" t="n">
-        <v>1827.901956816355</v>
+        <v>1827.901956816356</v>
       </c>
       <c r="W38" t="n">
-        <v>1674.788713935391</v>
+        <v>1674.788713935392</v>
       </c>
       <c r="X38" t="n">
-        <v>1500.978368063462</v>
+        <v>1500.978368063463</v>
       </c>
       <c r="Y38" t="n">
-        <v>1310.4944484768</v>
+        <v>1310.494448476801</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>40.73975228966729</v>
+        <v>71.5541701589049</v>
       </c>
       <c r="C39" t="n">
-        <v>40.73975228966729</v>
+        <v>71.5541701589049</v>
       </c>
       <c r="D39" t="n">
-        <v>40.73975228966729</v>
+        <v>71.5541701589049</v>
       </c>
       <c r="E39" t="n">
-        <v>40.73975228966729</v>
+        <v>71.5541701589049</v>
       </c>
       <c r="F39" t="n">
-        <v>40.73975228966729</v>
+        <v>71.5541701589049</v>
       </c>
       <c r="G39" t="n">
-        <v>40.73975228966729</v>
+        <v>131.5304498355955</v>
       </c>
       <c r="H39" t="n">
-        <v>40.73975228966729</v>
+        <v>177.114938340014</v>
       </c>
       <c r="I39" t="n">
-        <v>40.73975228966729</v>
+        <v>177.114938340014</v>
       </c>
       <c r="J39" t="n">
-        <v>40.73975228966729</v>
+        <v>177.114938340014</v>
       </c>
       <c r="K39" t="n">
-        <v>40.73975228966729</v>
+        <v>177.114938340014</v>
       </c>
       <c r="L39" t="n">
-        <v>177.1149383400131</v>
+        <v>177.114938340014</v>
       </c>
       <c r="M39" t="n">
-        <v>177.1149383400131</v>
+        <v>177.114938340014</v>
       </c>
       <c r="N39" t="n">
-        <v>177.1149383400131</v>
+        <v>177.114938340014</v>
       </c>
       <c r="O39" t="n">
-        <v>177.1149383400131</v>
+        <v>177.114938340014</v>
       </c>
       <c r="P39" t="n">
-        <v>177.1149383400131</v>
+        <v>177.114938340014</v>
       </c>
       <c r="Q39" t="n">
-        <v>177.1149383400131</v>
+        <v>177.114938340014</v>
       </c>
       <c r="R39" t="n">
-        <v>177.1149383400131</v>
+        <v>177.114938340014</v>
       </c>
       <c r="S39" t="n">
-        <v>177.1149383400131</v>
+        <v>177.114938340014</v>
       </c>
       <c r="T39" t="n">
-        <v>175.6698452930421</v>
+        <v>175.6698452930428</v>
       </c>
       <c r="U39" t="n">
-        <v>147.1193666634964</v>
+        <v>147.119366663497</v>
       </c>
       <c r="V39" t="n">
-        <v>111.6226708209042</v>
+        <v>111.6226708209046</v>
       </c>
       <c r="W39" t="n">
-        <v>57.04072648185304</v>
+        <v>57.04072648185335</v>
       </c>
       <c r="X39" t="n">
-        <v>48.84463866547072</v>
+        <v>48.84463866547088</v>
       </c>
       <c r="Y39" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="C40" t="n">
-        <v>70.84766908463212</v>
+        <v>70.847669084632</v>
       </c>
       <c r="D40" t="n">
-        <v>70.84766908463212</v>
+        <v>85.20671183754338</v>
       </c>
       <c r="E40" t="n">
-        <v>70.84766908463212</v>
+        <v>135.9193585000461</v>
       </c>
       <c r="F40" t="n">
-        <v>70.84766908463212</v>
+        <v>187.6347906399505</v>
       </c>
       <c r="G40" t="n">
-        <v>70.84766908463212</v>
+        <v>217.2273966070375</v>
       </c>
       <c r="H40" t="n">
-        <v>70.84766908463212</v>
+        <v>254.2732647860893</v>
       </c>
       <c r="I40" t="n">
-        <v>70.84766908463212</v>
+        <v>254.2732647860893</v>
       </c>
       <c r="J40" t="n">
-        <v>189.7577440011303</v>
+        <v>373.1833397025874</v>
       </c>
       <c r="K40" t="n">
-        <v>193.4342812276588</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="L40" t="n">
-        <v>225.3934815121777</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="M40" t="n">
-        <v>299.287892981019</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="N40" t="n">
-        <v>376.8598769291149</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="O40" t="n">
-        <v>376.8598769291149</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="P40" t="n">
-        <v>376.8598769291149</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="Q40" t="n">
-        <v>376.8598769291149</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="R40" t="n">
-        <v>376.8598769291149</v>
+        <v>376.8598769291159</v>
       </c>
       <c r="S40" t="n">
-        <v>354.172740663557</v>
+        <v>354.1727406635579</v>
       </c>
       <c r="T40" t="n">
-        <v>324.5452975041734</v>
+        <v>324.5452975041741</v>
       </c>
       <c r="U40" t="n">
-        <v>235.0018910174603</v>
+        <v>235.0018910174609</v>
       </c>
       <c r="V40" t="n">
-        <v>179.9728152007239</v>
+        <v>179.9728152007244</v>
       </c>
       <c r="W40" t="n">
-        <v>90.21105755291376</v>
+        <v>90.21105755291407</v>
       </c>
       <c r="X40" t="n">
-        <v>61.87691904404691</v>
+        <v>61.87691904404707</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1123.550020801829</v>
+        <v>1123.55002080183</v>
       </c>
       <c r="C41" t="n">
-        <v>954.242916250568</v>
+        <v>954.2429162505688</v>
       </c>
       <c r="D41" t="n">
-        <v>795.632630032968</v>
+        <v>795.6326300329687</v>
       </c>
       <c r="E41" t="n">
-        <v>609.4997898238743</v>
+        <v>609.4997898238748</v>
       </c>
       <c r="F41" t="n">
-        <v>398.1692974234172</v>
+        <v>398.1692974234177</v>
       </c>
       <c r="G41" t="n">
-        <v>178.8306033145581</v>
+        <v>178.8306033145583</v>
       </c>
       <c r="H41" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="I41" t="n">
-        <v>47.0798794910028</v>
+        <v>47.07987949100271</v>
       </c>
       <c r="J41" t="n">
-        <v>228.0785017880837</v>
+        <v>105.4192291232825</v>
       </c>
       <c r="K41" t="n">
-        <v>268.6578550404365</v>
+        <v>466.9025408210883</v>
       </c>
       <c r="L41" t="n">
-        <v>722.3076060161472</v>
+        <v>507.0676893918531</v>
       </c>
       <c r="M41" t="n">
-        <v>1025.952679439995</v>
+        <v>1006.395032498307</v>
       </c>
       <c r="N41" t="n">
-        <v>1312.207825547631</v>
+        <v>1496.003672798097</v>
       </c>
       <c r="O41" t="n">
-        <v>1363.256614952686</v>
+        <v>1496.003672798097</v>
       </c>
       <c r="P41" t="n">
-        <v>1719.577275663045</v>
+        <v>1852.324333508456</v>
       </c>
       <c r="Q41" t="n">
-        <v>1958.670527295442</v>
+        <v>2023.729782969696</v>
       </c>
       <c r="R41" t="n">
-        <v>2036.987614483364</v>
+        <v>2036.987614483366</v>
       </c>
       <c r="S41" t="n">
-        <v>2036.987614483364</v>
+        <v>2036.987614483366</v>
       </c>
       <c r="T41" t="n">
-        <v>2013.498228615229</v>
+        <v>2013.49822861523</v>
       </c>
       <c r="U41" t="n">
-        <v>1959.309431770775</v>
+        <v>1959.309431770777</v>
       </c>
       <c r="V41" t="n">
-        <v>1827.901956816355</v>
+        <v>1827.901956816356</v>
       </c>
       <c r="W41" t="n">
-        <v>1674.788713935391</v>
+        <v>1674.788713935393</v>
       </c>
       <c r="X41" t="n">
-        <v>1500.978368063462</v>
+        <v>1500.978368063463</v>
       </c>
       <c r="Y41" t="n">
-        <v>1310.4944484768</v>
+        <v>1310.494448476802</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="C42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="D42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="E42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="F42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="G42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="H42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="I42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="J42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="K42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="L42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="M42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="N42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="O42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="P42" t="n">
-        <v>177.1149383400131</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="Q42" t="n">
-        <v>177.1149383400131</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="R42" t="n">
-        <v>177.1149383400131</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="S42" t="n">
-        <v>177.1149383400131</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="T42" t="n">
-        <v>175.6698452930421</v>
+        <v>175.6698452930427</v>
       </c>
       <c r="U42" t="n">
-        <v>147.1193666634964</v>
+        <v>147.1193666634969</v>
       </c>
       <c r="V42" t="n">
-        <v>111.6226708209042</v>
+        <v>111.6226708209046</v>
       </c>
       <c r="W42" t="n">
-        <v>57.04072648185304</v>
+        <v>57.0407264818533</v>
       </c>
       <c r="X42" t="n">
-        <v>48.84463866547072</v>
+        <v>48.84463866547085</v>
       </c>
       <c r="Y42" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.38836159215575</v>
+        <v>58.38836159215566</v>
       </c>
       <c r="C43" t="n">
-        <v>58.38836159215575</v>
+        <v>88.49627838712037</v>
       </c>
       <c r="D43" t="n">
-        <v>58.38836159215575</v>
+        <v>137.0492297816964</v>
       </c>
       <c r="E43" t="n">
-        <v>58.38836159215575</v>
+        <v>187.7618764441992</v>
       </c>
       <c r="F43" t="n">
-        <v>58.38836159215575</v>
+        <v>239.4773085841035</v>
       </c>
       <c r="G43" t="n">
-        <v>58.38836159215575</v>
+        <v>269.0699145511906</v>
       </c>
       <c r="H43" t="n">
-        <v>95.43422977120768</v>
+        <v>269.0699145511906</v>
       </c>
       <c r="I43" t="n">
-        <v>143.8788070000675</v>
+        <v>269.0699145511906</v>
       </c>
       <c r="J43" t="n">
-        <v>262.7888819165657</v>
+        <v>269.0699145511906</v>
       </c>
       <c r="K43" t="n">
-        <v>262.7888819165657</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="L43" t="n">
-        <v>262.7888819165657</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="M43" t="n">
-        <v>262.7888819165657</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="N43" t="n">
-        <v>262.7888819165657</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="O43" t="n">
-        <v>262.7888819165657</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="P43" t="n">
-        <v>376.8598769291149</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="Q43" t="n">
-        <v>376.8598769291149</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="R43" t="n">
-        <v>376.8598769291149</v>
+        <v>376.8598769291157</v>
       </c>
       <c r="S43" t="n">
-        <v>354.172740663557</v>
+        <v>354.1727406635577</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5452975041734</v>
+        <v>324.545297504174</v>
       </c>
       <c r="U43" t="n">
-        <v>235.0018910174603</v>
+        <v>235.0018910174608</v>
       </c>
       <c r="V43" t="n">
-        <v>179.9728152007239</v>
+        <v>179.9728152007243</v>
       </c>
       <c r="W43" t="n">
-        <v>90.21105755291376</v>
+        <v>90.21105755291401</v>
       </c>
       <c r="X43" t="n">
-        <v>61.87691904404691</v>
+        <v>61.87691904404704</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1123.550020801829</v>
+        <v>1123.55002080183</v>
       </c>
       <c r="C44" t="n">
-        <v>954.2429162505676</v>
+        <v>954.2429162505683</v>
       </c>
       <c r="D44" t="n">
-        <v>795.6326300329677</v>
+        <v>795.6326300329683</v>
       </c>
       <c r="E44" t="n">
-        <v>609.4997898238739</v>
+        <v>609.4997898238748</v>
       </c>
       <c r="F44" t="n">
-        <v>398.1692974234168</v>
+        <v>398.1692974234177</v>
       </c>
       <c r="G44" t="n">
-        <v>178.8306033145582</v>
+        <v>178.8306033145583</v>
       </c>
       <c r="H44" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="I44" t="n">
-        <v>47.07987949100267</v>
+        <v>47.07987949100271</v>
       </c>
       <c r="J44" t="n">
-        <v>272.8248781436354</v>
+        <v>272.8248781436356</v>
       </c>
       <c r="K44" t="n">
-        <v>634.3081898414412</v>
+        <v>340.5554572758424</v>
       </c>
       <c r="L44" t="n">
-        <v>1087.957940817152</v>
+        <v>794.2052082515531</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.266885765702</v>
+        <v>1293.532551358007</v>
       </c>
       <c r="N44" t="n">
-        <v>1239.368153404164</v>
+        <v>1587.458921975191</v>
       </c>
       <c r="O44" t="n">
-        <v>1667.409122259337</v>
+        <v>1638.507711380246</v>
       </c>
       <c r="P44" t="n">
-        <v>2023.729782969695</v>
+        <v>1994.828372090604</v>
       </c>
       <c r="Q44" t="n">
-        <v>2023.729782969695</v>
+        <v>2023.729782969696</v>
       </c>
       <c r="R44" t="n">
-        <v>2036.987614483364</v>
+        <v>2036.987614483366</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.987614483364</v>
+        <v>2036.987614483366</v>
       </c>
       <c r="T44" t="n">
-        <v>2013.498228615229</v>
+        <v>2013.49822861523</v>
       </c>
       <c r="U44" t="n">
-        <v>1959.309431770775</v>
+        <v>1959.309431770777</v>
       </c>
       <c r="V44" t="n">
-        <v>1827.901956816355</v>
+        <v>1827.901956816356</v>
       </c>
       <c r="W44" t="n">
-        <v>1674.788713935391</v>
+        <v>1674.788713935392</v>
       </c>
       <c r="X44" t="n">
-        <v>1500.978368063461</v>
+        <v>1500.978368063463</v>
       </c>
       <c r="Y44" t="n">
-        <v>1310.4944484768</v>
+        <v>1310.494448476801</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="C45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="D45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="E45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="F45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="G45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="H45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="I45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="J45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="K45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="L45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="M45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="N45" t="n">
-        <v>177.1149383400137</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="O45" t="n">
-        <v>177.1149383400137</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="P45" t="n">
-        <v>177.1149383400137</v>
+        <v>121.3324699124147</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.1149383400137</v>
+        <v>121.3324699124147</v>
       </c>
       <c r="R45" t="n">
-        <v>177.1149383400137</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="S45" t="n">
-        <v>177.1149383400137</v>
+        <v>177.1149383400139</v>
       </c>
       <c r="T45" t="n">
-        <v>175.6698452930425</v>
+        <v>175.6698452930427</v>
       </c>
       <c r="U45" t="n">
-        <v>147.1193666634968</v>
+        <v>147.1193666634969</v>
       </c>
       <c r="V45" t="n">
-        <v>111.6226708209045</v>
+        <v>111.6226708209046</v>
       </c>
       <c r="W45" t="n">
-        <v>57.04072648185322</v>
+        <v>57.0407264818533</v>
       </c>
       <c r="X45" t="n">
-        <v>48.8446386654708</v>
+        <v>48.84463866547085</v>
       </c>
       <c r="Y45" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>58.38836159215566</v>
+        <v>40.73975228966732</v>
       </c>
       <c r="C46" t="n">
-        <v>58.38836159215566</v>
+        <v>70.84766908463203</v>
       </c>
       <c r="D46" t="n">
-        <v>58.38836159215566</v>
+        <v>119.4006204792081</v>
       </c>
       <c r="E46" t="n">
-        <v>58.38836159215566</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="F46" t="n">
-        <v>58.38836159215566</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="G46" t="n">
-        <v>58.38836159215566</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="H46" t="n">
-        <v>58.38836159215566</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="I46" t="n">
-        <v>58.38836159215566</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="J46" t="n">
-        <v>58.38836159215566</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="K46" t="n">
-        <v>58.38836159215566</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="L46" t="n">
-        <v>282.5108138284648</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="M46" t="n">
-        <v>282.5108138284648</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="N46" t="n">
-        <v>282.5108138284648</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="O46" t="n">
-        <v>282.5108138284648</v>
+        <v>170.1132671417109</v>
       </c>
       <c r="P46" t="n">
-        <v>282.5108138284648</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="Q46" t="n">
-        <v>346.7428526107271</v>
+        <v>346.7428526107274</v>
       </c>
       <c r="R46" t="n">
-        <v>376.8598769291155</v>
+        <v>376.8598769291157</v>
       </c>
       <c r="S46" t="n">
-        <v>354.1727406635575</v>
+        <v>354.1727406635577</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5452975041738</v>
+        <v>324.545297504174</v>
       </c>
       <c r="U46" t="n">
-        <v>235.0018910174607</v>
+        <v>235.0018910174608</v>
       </c>
       <c r="V46" t="n">
-        <v>179.9728152007242</v>
+        <v>179.9728152007243</v>
       </c>
       <c r="W46" t="n">
-        <v>90.21105755291394</v>
+        <v>90.21105755291401</v>
       </c>
       <c r="X46" t="n">
-        <v>61.876919044047</v>
+        <v>61.87691904404704</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.73975228966729</v>
+        <v>40.73975228966732</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>138.730222273057</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>55.59592632550561</v>
       </c>
       <c r="L11" t="n">
-        <v>78.79135683855085</v>
+        <v>29.56038730032461</v>
       </c>
       <c r="M11" t="n">
-        <v>142.8013381152083</v>
+        <v>26.92141676326958</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>235.2640487187592</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>159.5377071333493</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>168.4655139429441</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>61.96199093401879</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>15.18501829017387</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>156.6696125558117</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>142.8013381152083</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>45.02073829247271</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>159.5377071333493</v>
       </c>
       <c r="Q14" t="n">
-        <v>168.4655139429441</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.72099744573971</v>
+        <v>30.74243351176214</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9012,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>23.65781514410247</v>
+        <v>74.54323996603426</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>79.12735402155596</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>83.0350273337411</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.9301475100312</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>103.0300923784621</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>101.6351697582675</v>
@@ -9094,13 +9094,13 @@
         <v>103.8688412439494</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>93.46217750295074</v>
       </c>
       <c r="O16" t="n">
         <v>106.8457198497179</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>110.6794877973681</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>299.0601228206182</v>
       </c>
       <c r="N26" t="n">
-        <v>424.6119349365417</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>13.84793941130913</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>101.6346962078498</v>
       </c>
       <c r="K27" t="n">
-        <v>166.1829867879526</v>
+        <v>111.4040034431456</v>
       </c>
       <c r="L27" t="n">
-        <v>80.63362065245525</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>74.54323996603426</v>
@@ -9969,13 +9969,13 @@
         <v>79.12735402155596</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>83.0350273337411</v>
       </c>
       <c r="Q27" t="n">
         <v>105.9301475100312</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>3.224584061758915</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,22 +10030,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>24.3136496391414</v>
       </c>
       <c r="K28" t="n">
         <v>103.0300923784621</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>101.6351697582675</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>103.8688412439494</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>9.105612725131422</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>110.6794877973681</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>286.8935137397663</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>35.39421629058229</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10185,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>101.6346962078498</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>94.76561655653892</v>
       </c>
       <c r="L30" t="n">
-        <v>109.7459853078319</v>
+        <v>80.63362065245525</v>
       </c>
       <c r="M30" t="n">
         <v>74.54323996603426</v>
       </c>
       <c r="N30" t="n">
-        <v>61.96199093401879</v>
+        <v>368.8071024716292</v>
       </c>
       <c r="O30" t="n">
         <v>79.12735402155596</v>
@@ -10209,10 +10209,10 @@
         <v>83.0350273337411</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>105.9301475100312</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,13 +10270,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>103.0300923784621</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>101.6351697582675</v>
       </c>
       <c r="M31" t="n">
-        <v>103.8688412439494</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10285,10 +10285,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>83.99899477005293</v>
+        <v>110.6794877973681</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.31215536382145</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>155.0576374472685</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>101.6346962078498</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>166.1829867879526</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>80.63362065245525</v>
+        <v>193.3227726014671</v>
       </c>
       <c r="M33" t="n">
         <v>74.54323996603426</v>
@@ -10443,7 +10443,7 @@
         <v>79.12735402155596</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>83.0350273337411</v>
       </c>
       <c r="Q33" t="n">
         <v>105.9301475100312</v>
@@ -10507,25 +10507,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>16.88276453091194</v>
+        <v>103.8688412439494</v>
       </c>
       <c r="N34" t="n">
-        <v>112.636193148201</v>
+        <v>93.46217750295074</v>
       </c>
       <c r="O34" t="n">
-        <v>106.8457198497179</v>
+        <v>126.2038944054278</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>111.9261523074795</v>
+        <v>144.0413677398428</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,16 +10595,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>23.22039623386789</v>
+        <v>101.6346962078498</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>94.76561655653892</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>80.63362065245525</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>74.54323996603426</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>61.96199093401879</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>79.12735402155596</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>83.0350273337411</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>105.9301475100312</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,10 +10741,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>10.26595821295898</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>103.0300923784621</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
         <v>101.6351697582675</v>
@@ -10753,7 +10753,7 @@
         <v>103.8688412439494</v>
       </c>
       <c r="N37" t="n">
-        <v>93.46217750295074</v>
+        <v>112.273268152936</v>
       </c>
       <c r="O37" t="n">
         <v>106.8457198497179</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>82.47281375054524</v>
+        <v>235.7944584489456</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,7 +10905,7 @@
         <v>94.76561655653892</v>
       </c>
       <c r="L39" t="n">
-        <v>218.3863338346228</v>
+        <v>80.63362065245525</v>
       </c>
       <c r="M39" t="n">
         <v>74.54323996603426</v>
@@ -10984,13 +10984,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>133.9171902476805</v>
+        <v>101.6351697582675</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>103.8688412439494</v>
       </c>
       <c r="N40" t="n">
-        <v>171.8177168444618</v>
+        <v>93.46217750295074</v>
       </c>
       <c r="O40" t="n">
         <v>106.8457198497179</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>231.9393545209194</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>146.0944245227789</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>143.9434733153019</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>101.6346962078498</v>
       </c>
       <c r="K42" t="n">
-        <v>94.76561655653892</v>
+        <v>94.7656165565389</v>
       </c>
       <c r="L42" t="n">
-        <v>80.63362065245525</v>
+        <v>80.63362065245522</v>
       </c>
       <c r="M42" t="n">
-        <v>74.54323996603426</v>
+        <v>74.54323996603424</v>
       </c>
       <c r="N42" t="n">
-        <v>61.96199093401879</v>
+        <v>61.96199093401877</v>
       </c>
       <c r="O42" t="n">
-        <v>79.12735402155596</v>
+        <v>79.12735402155593</v>
       </c>
       <c r="P42" t="n">
-        <v>220.7877405159086</v>
+        <v>220.7877405159093</v>
       </c>
       <c r="Q42" t="n">
         <v>105.9301475100312</v>
@@ -11218,7 +11218,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.1293044934704</v>
       </c>
       <c r="L43" t="n">
         <v>101.6351697582675</v>
@@ -11227,16 +11227,16 @@
         <v>103.8688412439494</v>
       </c>
       <c r="N43" t="n">
-        <v>93.46217750295074</v>
+        <v>93.46217750295071</v>
       </c>
       <c r="O43" t="n">
         <v>106.8457198497179</v>
       </c>
       <c r="P43" t="n">
-        <v>28.24385681751231</v>
+        <v>110.679487797368</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>27.42548068672131</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>40.87483081468369</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>168.4655139429442</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,31 +11370,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>101.6346962078498</v>
       </c>
       <c r="K45" t="n">
-        <v>94.76561655653902</v>
+        <v>94.7656165565389</v>
       </c>
       <c r="L45" t="n">
-        <v>80.63362065245538</v>
+        <v>80.63362065245522</v>
       </c>
       <c r="M45" t="n">
-        <v>74.54323996603441</v>
+        <v>74.54323996603424</v>
       </c>
       <c r="N45" t="n">
-        <v>199.7147041161871</v>
+        <v>61.96199093401877</v>
       </c>
       <c r="O45" t="n">
-        <v>79.12735402155609</v>
+        <v>79.12735402155593</v>
       </c>
       <c r="P45" t="n">
-        <v>83.03502733374121</v>
+        <v>164.4418128112637</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.9301475100313</v>
+        <v>105.9301475100312</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11452,28 +11452,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>72.38104706899173</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L46" t="n">
-        <v>130.36262688322</v>
+        <v>101.6351697582675</v>
       </c>
       <c r="M46" t="n">
         <v>103.8688412439494</v>
       </c>
       <c r="N46" t="n">
-        <v>93.46217750295079</v>
+        <v>93.46217750295071</v>
       </c>
       <c r="O46" t="n">
-        <v>106.845719849718</v>
+        <v>106.8457198497179</v>
       </c>
       <c r="P46" t="n">
-        <v>110.6794877973681</v>
+        <v>91.43435222808543</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.38786243430718</v>
+        <v>178.0240089337409</v>
       </c>
       <c r="C11" t="n">
-        <v>56.92691254183416</v>
+        <v>160.5630590412679</v>
       </c>
       <c r="D11" t="n">
         <v>149.9732088909433</v>
       </c>
       <c r="E11" t="n">
-        <v>73.58439084308839</v>
+        <v>177.2205373425221</v>
       </c>
       <c r="F11" t="n">
-        <v>202.1662130119717</v>
+        <v>202.1662130119718</v>
       </c>
       <c r="G11" t="n">
-        <v>181.6110668230905</v>
+        <v>210.0943327032896</v>
       </c>
       <c r="H11" t="n">
         <v>129.6589680501612</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>16.20351754497344</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>123.0424257403952</v>
+        <v>19.40627924096165</v>
       </c>
       <c r="W11" t="n">
-        <v>144.5311359876733</v>
+        <v>40.89498948823976</v>
       </c>
       <c r="X11" t="n">
-        <v>165.0212679487293</v>
+        <v>61.38512144929575</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.5281059263139</v>
+        <v>136.8413225011412</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.0240089337409</v>
+        <v>74.38786243430724</v>
       </c>
       <c r="C14" t="n">
-        <v>56.92691254183416</v>
+        <v>69.28034120456677</v>
       </c>
       <c r="D14" t="n">
-        <v>149.9732088909433</v>
+        <v>149.9732088909432</v>
       </c>
       <c r="E14" t="n">
-        <v>73.58439084308839</v>
+        <v>177.220537342522</v>
       </c>
       <c r="F14" t="n">
         <v>202.1662130119717</v>
       </c>
       <c r="G14" t="n">
-        <v>106.4581862038558</v>
+        <v>210.0943327032894</v>
       </c>
       <c r="H14" t="n">
-        <v>101.1757021699619</v>
+        <v>129.6589680501611</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>16.20351754497335</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.59593441152828</v>
       </c>
       <c r="V14" t="n">
-        <v>123.0424257403952</v>
+        <v>123.0424257403951</v>
       </c>
       <c r="W14" t="n">
         <v>144.5311359876733</v>
       </c>
       <c r="X14" t="n">
-        <v>165.0212679487293</v>
+        <v>61.3851214492957</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.5281059263139</v>
+        <v>77.89195942688025</v>
       </c>
     </row>
     <row r="15">
@@ -26320,10 +26320,10 @@
         <v>20481.90846792596</v>
       </c>
       <c r="E2" t="n">
-        <v>17576.00544579205</v>
+        <v>17576.00544579207</v>
       </c>
       <c r="F2" t="n">
-        <v>17576.00544579205</v>
+        <v>17576.00544579206</v>
       </c>
       <c r="G2" t="n">
         <v>20526.04424660708</v>
@@ -26332,25 +26332,25 @@
         <v>20526.04424660708</v>
       </c>
       <c r="I2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="J2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20526.04424660707</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660707</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660706</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26375,19 +26375,19 @@
         <v>294349.2232702161</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
         <v>103727.1744401288</v>
       </c>
       <c r="H3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>165849.5582910368</v>
+        <v>165849.5582910369</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>103727.1744401288</v>
       </c>
       <c r="M3" t="n">
-        <v>21791.75073201288</v>
+        <v>21791.75073201284</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32608.16144006547</v>
+        <v>32608.16144006537</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>358816.4657487489</v>
+        <v>358816.4657487488</v>
       </c>
       <c r="F4" t="n">
         <v>358816.4657487489</v>
       </c>
       <c r="G4" t="n">
+        <v>425794.1076040038</v>
+      </c>
+      <c r="H4" t="n">
         <v>425794.1076040037</v>
       </c>
-      <c r="H4" t="n">
-        <v>425794.1076040039</v>
-      </c>
       <c r="I4" t="n">
-        <v>425794.1076040039</v>
+        <v>425794.1076040037</v>
       </c>
       <c r="J4" t="n">
-        <v>429343.9844908855</v>
+        <v>429343.9844908856</v>
       </c>
       <c r="K4" t="n">
         <v>429343.9844908855</v>
@@ -26451,10 +26451,10 @@
         <v>428441.800531239</v>
       </c>
       <c r="N4" t="n">
-        <v>428441.800531239</v>
+        <v>428441.8005312391</v>
       </c>
       <c r="O4" t="n">
-        <v>428441.800531239</v>
+        <v>428441.8005312391</v>
       </c>
       <c r="P4" t="n">
         <v>428441.8005312391</v>
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26214.46039316142</v>
+        <v>26214.46039316141</v>
       </c>
       <c r="F5" t="n">
         <v>26214.46039316142</v>
       </c>
       <c r="G5" t="n">
-        <v>37114.76017817041</v>
+        <v>37114.7601781704</v>
       </c>
       <c r="H5" t="n">
         <v>37114.76017817041</v>
       </c>
       <c r="I5" t="n">
-        <v>37114.76017817041</v>
+        <v>37114.7601781704</v>
       </c>
       <c r="J5" t="n">
-        <v>54293.89039569214</v>
+        <v>54293.89039569216</v>
       </c>
       <c r="K5" t="n">
-        <v>54293.89039569213</v>
+        <v>54293.89039569216</v>
       </c>
       <c r="L5" t="n">
-        <v>54293.89039569213</v>
+        <v>54293.89039569216</v>
       </c>
       <c r="M5" t="n">
-        <v>50282.82605388854</v>
+        <v>50282.82605388857</v>
       </c>
       <c r="N5" t="n">
         <v>50282.82605388857</v>
@@ -26509,7 +26509,7 @@
         <v>50282.82605388857</v>
       </c>
       <c r="P5" t="n">
-        <v>50282.82605388855</v>
+        <v>50282.82605388857</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480761.6514638052</v>
+        <v>-480766.0650416734</v>
       </c>
       <c r="C6" t="n">
-        <v>-480761.6514638052</v>
+        <v>-480766.0650416734</v>
       </c>
       <c r="D6" t="n">
-        <v>-480761.6514638052</v>
+        <v>-480766.0650416734</v>
       </c>
       <c r="E6" t="n">
-        <v>-661804.1439663343</v>
+        <v>-662099.1478464158</v>
       </c>
       <c r="F6" t="n">
-        <v>-367454.9206961182</v>
+        <v>-367749.9245761997</v>
       </c>
       <c r="G6" t="n">
         <v>-546109.9979756959</v>
       </c>
       <c r="H6" t="n">
-        <v>-442382.8235355673</v>
+        <v>-442382.8235355671</v>
       </c>
       <c r="I6" t="n">
-        <v>-442382.8235355671</v>
+        <v>-442382.823535567</v>
       </c>
       <c r="J6" t="n">
-        <v>-628961.3889310074</v>
+        <v>-628961.3889310076</v>
       </c>
       <c r="K6" t="n">
         <v>-463111.8306399706</v>
       </c>
       <c r="L6" t="n">
-        <v>-566839.0050800993</v>
+        <v>-566839.0050800995</v>
       </c>
       <c r="M6" t="n">
         <v>-479990.3330705334</v>
       </c>
       <c r="N6" t="n">
-        <v>-458198.5823385204</v>
+        <v>-458198.5823385206</v>
       </c>
       <c r="O6" t="n">
         <v>-490806.7437785859</v>
       </c>
       <c r="P6" t="n">
-        <v>-458198.5823385204</v>
+        <v>-458198.5823385206</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>204.7098327297397</v>
       </c>
       <c r="F2" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="G2" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="H2" t="n">
         <v>334.3688007799008</v>
@@ -26707,22 +26707,22 @@
         <v>334.3688007799008</v>
       </c>
       <c r="J2" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="K2" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="L2" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="M2" t="n">
+        <v>197.6588582652588</v>
+      </c>
+      <c r="N2" t="n">
+        <v>197.6588582652588</v>
+      </c>
+      <c r="O2" t="n">
         <v>197.6588582652589</v>
-      </c>
-      <c r="N2" t="n">
-        <v>197.658858265259</v>
-      </c>
-      <c r="O2" t="n">
-        <v>197.658858265259</v>
       </c>
       <c r="P2" t="n">
         <v>197.6588582652589</v>
@@ -26777,7 +26777,7 @@
         <v>124.019805423824</v>
       </c>
       <c r="P3" t="n">
-        <v>124.0198054238237</v>
+        <v>124.019805423824</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="F4" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="G4" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="H4" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="I4" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="J4" t="n">
-        <v>612.8830501202747</v>
+        <v>612.8830501202751</v>
       </c>
       <c r="K4" t="n">
-        <v>612.8830501202746</v>
+        <v>612.8830501202751</v>
       </c>
       <c r="L4" t="n">
-        <v>612.8830501202746</v>
+        <v>612.8830501202751</v>
       </c>
       <c r="M4" t="n">
-        <v>509.2469036208408</v>
+        <v>509.2469036208414</v>
       </c>
       <c r="N4" t="n">
-        <v>509.2469036208412</v>
+        <v>509.2469036208414</v>
       </c>
       <c r="O4" t="n">
-        <v>509.2469036208411</v>
+        <v>509.2469036208415</v>
       </c>
       <c r="P4" t="n">
-        <v>509.2469036208411</v>
+        <v>509.2469036208415</v>
       </c>
     </row>
   </sheetData>
@@ -26917,19 +26917,19 @@
         <v>204.7098327297397</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>129.658968050161</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.76020180008183</v>
+        <v>40.76020180008169</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>129.658968050161</v>
       </c>
       <c r="M2" t="n">
-        <v>27.2396884150161</v>
+        <v>27.23968841501605</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.76020180008183</v>
+        <v>40.76020180008172</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>509.246903620841</v>
+        <v>509.2469036208416</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>204.7098327297397</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>129.658968050161</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.76020180008183</v>
+        <v>40.76020180008169</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,28 +28111,28 @@
         <v>204.7098327297397</v>
       </c>
       <c r="J11" t="n">
-        <v>204.7098327297397</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>204.7098327297397</v>
       </c>
       <c r="L11" t="n">
-        <v>78.29664428452139</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>115.8799213519387</v>
       </c>
       <c r="N11" t="n">
         <v>204.7098327297397</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.7098327297397</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>204.7098327297397</v>
@@ -28169,16 +28169,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>177.7844621727301</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>204.7098327297397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="G12" t="n">
         <v>137.076757581733</v>
@@ -28202,7 +28202,7 @@
         <v>74.54323996603426</v>
       </c>
       <c r="N12" t="n">
-        <v>61.96199093401879</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>79.12735402155596</v>
@@ -28214,10 +28214,10 @@
         <v>105.9301475100312</v>
       </c>
       <c r="R12" t="n">
-        <v>129.1170099490616</v>
+        <v>169.7987238142541</v>
       </c>
       <c r="S12" t="n">
-        <v>204.7098327297397</v>
+        <v>166.7282288777068</v>
       </c>
       <c r="T12" t="n">
         <v>199.0895003817603</v>
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="C13" t="n">
-        <v>204.7098327297397</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -28257,22 +28257,22 @@
         <v>204.7098327297397</v>
       </c>
       <c r="F13" t="n">
+        <v>145.4210480229312</v>
+      </c>
+      <c r="G13" t="n">
         <v>204.7098327297397</v>
       </c>
-      <c r="G13" t="n">
-        <v>167.767337086383</v>
-      </c>
       <c r="H13" t="n">
-        <v>160.2387893975297</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="I13" t="n">
         <v>148.7249418724712</v>
       </c>
       <c r="J13" t="n">
-        <v>204.7098327297397</v>
+        <v>111.1839128036407</v>
       </c>
       <c r="K13" t="n">
-        <v>106.1606076472767</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L13" t="n">
         <v>101.6351697582675</v>
@@ -28290,7 +28290,7 @@
         <v>110.6794877973681</v>
       </c>
       <c r="Q13" t="n">
-        <v>132.7780110104484</v>
+        <v>204.7098327297397</v>
       </c>
       <c r="R13" t="n">
         <v>204.7098327297397</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="C14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="D14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="E14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="F14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="G14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="H14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="I14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="J14" t="n">
-        <v>204.7098327297397</v>
+        <v>163.727190740235</v>
       </c>
       <c r="K14" t="n">
-        <v>204.7098327297397</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="N14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="O14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="P14" t="n">
-        <v>204.7098327297397</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="R14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="S14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="T14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="U14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="V14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="W14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="X14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>204.7098327297397</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -28421,10 +28421,10 @@
         <v>137.076757581733</v>
       </c>
       <c r="H15" t="n">
-        <v>114.7350714629555</v>
+        <v>109.6591082785412</v>
       </c>
       <c r="I15" t="n">
-        <v>90.33789440965077</v>
+        <v>190.6602286111987</v>
       </c>
       <c r="J15" t="n">
         <v>101.6346962078498</v>
@@ -28436,43 +28436,43 @@
         <v>80.63362065245525</v>
       </c>
       <c r="M15" t="n">
-        <v>50.88542482193179</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>61.96199093401879</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>79.12735402155596</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>105.9301475100312</v>
       </c>
       <c r="R15" t="n">
         <v>129.1170099490616</v>
       </c>
       <c r="S15" t="n">
-        <v>204.7098327297397</v>
+        <v>166.7282288777068</v>
       </c>
       <c r="T15" t="n">
         <v>199.0895003817603</v>
       </c>
       <c r="U15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="V15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="W15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="X15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
     </row>
     <row r="16">
@@ -28485,31 +28485,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>204.7098327297397</v>
+        <v>200.9103337351741</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="G16" t="n">
         <v>167.767337086383</v>
       </c>
       <c r="H16" t="n">
-        <v>160.2387893975297</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="I16" t="n">
-        <v>148.7249418724712</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="J16" t="n">
         <v>111.1839128036407</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>103.0300923784621</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28518,40 +28518,40 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>197.0983240023844</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>165.9919622611985</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.7098327297397</v>
+        <v>132.7780110104484</v>
       </c>
       <c r="R16" t="n">
-        <v>167.2376215800181</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="S16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="T16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="U16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="V16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="W16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="X16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.7098327297397</v>
+        <v>204.7098327297398</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="C17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="D17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="E17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="F17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="G17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="H17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="I17" t="n">
         <v>191.2546893750211</v>
       </c>
       <c r="J17" t="n">
-        <v>242.3663687724907</v>
+        <v>138.730222273057</v>
       </c>
       <c r="K17" t="n">
-        <v>166.4388640563648</v>
+        <v>156.6696125558117</v>
       </c>
       <c r="L17" t="n">
         <v>157.0880011230722</v>
@@ -28606,31 +28606,31 @@
         <v>159.5377071333493</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.4655139429441</v>
+        <v>178.234765443497</v>
       </c>
       <c r="R17" t="n">
-        <v>184.2671092615521</v>
+        <v>287.9032557609856</v>
       </c>
       <c r="S17" t="n">
-        <v>301.2950047646925</v>
+        <v>301.2950047646924</v>
       </c>
       <c r="T17" t="n">
-        <v>324.5494967741467</v>
+        <v>324.5494967741466</v>
       </c>
       <c r="U17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="V17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="W17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="X17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="Y17" t="n">
-        <v>334.3688007799007</v>
+        <v>334.3688007799008</v>
       </c>
     </row>
     <row r="18">
@@ -28819,7 +28819,7 @@
         <v>334.3688007799008</v>
       </c>
       <c r="I20" t="n">
-        <v>294.8908358744548</v>
+        <v>294.8908358744547</v>
       </c>
       <c r="J20" t="n">
         <v>138.730222273057</v>
@@ -28843,19 +28843,19 @@
         <v>159.5377071333493</v>
       </c>
       <c r="Q20" t="n">
-        <v>272.1016604423778</v>
+        <v>168.4655139429441</v>
       </c>
       <c r="R20" t="n">
-        <v>287.9032557609858</v>
+        <v>194.0363607621049</v>
       </c>
       <c r="S20" t="n">
-        <v>290.4911434044445</v>
+        <v>301.2950047646924</v>
       </c>
       <c r="T20" t="n">
-        <v>220.9133502747131</v>
+        <v>324.5494967741467</v>
       </c>
       <c r="U20" t="n">
-        <v>251.305767141268</v>
+        <v>334.3688007799008</v>
       </c>
       <c r="V20" t="n">
         <v>334.3688007799008</v>
@@ -29056,10 +29056,10 @@
         <v>334.3688007799008</v>
       </c>
       <c r="I23" t="n">
-        <v>191.2546893750211</v>
+        <v>294.8908358744546</v>
       </c>
       <c r="J23" t="n">
-        <v>138.730222273057</v>
+        <v>242.3663687724905</v>
       </c>
       <c r="K23" t="n">
         <v>156.6696125558117</v>
@@ -29080,16 +29080,16 @@
         <v>159.5377071333493</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.234765443497</v>
+        <v>168.4655139429441</v>
       </c>
       <c r="R23" t="n">
-        <v>287.9032557609858</v>
+        <v>184.2671092615521</v>
       </c>
       <c r="S23" t="n">
-        <v>301.2950047646925</v>
+        <v>207.4281097658115</v>
       </c>
       <c r="T23" t="n">
-        <v>324.5494967741467</v>
+        <v>324.5494967741466</v>
       </c>
       <c r="U23" t="n">
         <v>334.3688007799008</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="C26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="D26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="E26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="F26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="G26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="H26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="I26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="J26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="K26" t="n">
-        <v>170.419169850243</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="M26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="N26" t="n">
-        <v>84.56922911514143</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="P26" t="n">
-        <v>170.419169850243</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="R26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="S26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="T26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="U26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="V26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="W26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="X26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="Y26" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.59534013774075</v>
+        <v>125.8924258873027</v>
       </c>
       <c r="S27" t="n">
         <v>166.7282288777068</v>
       </c>
       <c r="T27" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="U27" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="V27" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="W27" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="X27" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="Y27" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
     </row>
     <row r="28">
@@ -29430,19 +29430,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>170.419169850243</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="F28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="G28" t="n">
         <v>167.767337086383</v>
@@ -29454,7 +29454,7 @@
         <v>148.7249418724712</v>
       </c>
       <c r="J28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29463,43 +29463,43 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>170.419169850243</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="O28" t="n">
-        <v>170.419169850243</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="R28" t="n">
-        <v>167.2376215800181</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="S28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="T28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="U28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="V28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="W28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="X28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="Y28" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="C29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="D29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="E29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="F29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="G29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="H29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="I29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="J29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="K29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="L29" t="n">
-        <v>170.419169850243</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="N29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="P29" t="n">
-        <v>170.419169850243</v>
+        <v>48.96540808225923</v>
       </c>
       <c r="Q29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="R29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="S29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="T29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="U29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="V29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="W29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="X29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="Y29" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>170.419169850243</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -29609,7 +29609,7 @@
         <v>109.6591082785412</v>
       </c>
       <c r="I30" t="n">
-        <v>90.33789440965077</v>
+        <v>80.21214726106585</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>129.1170099490616</v>
+        <v>83.59534013774075</v>
       </c>
       <c r="S30" t="n">
         <v>166.7282288777068</v>
       </c>
       <c r="T30" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="U30" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="V30" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="W30" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="X30" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="Y30" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
     </row>
     <row r="31">
@@ -29667,31 +29667,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="C31" t="n">
-        <v>170.419169850243</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="E31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="F31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="G31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="H31" t="n">
-        <v>170.419169850243</v>
+        <v>160.2387893975297</v>
       </c>
       <c r="I31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="J31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29706,37 +29706,37 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>142.7579924490824</v>
       </c>
       <c r="P31" t="n">
-        <v>170.419169850243</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.46585564662698</v>
+        <v>67.43505263269697</v>
       </c>
       <c r="R31" t="n">
-        <v>170.419169850243</v>
+        <v>167.2376215800181</v>
       </c>
       <c r="S31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="T31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="U31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="V31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="W31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="X31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502429</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="C32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="D32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="E32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="F32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="G32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="H32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="I32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="J32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="K32" t="n">
-        <v>170.419169850243</v>
+        <v>16.28766005199985</v>
       </c>
       <c r="L32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="M32" t="n">
-        <v>71.83423963969847</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="P32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="R32" t="n">
-        <v>118.5506893885697</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="S32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="T32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="U32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="V32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="W32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="X32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="Y32" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -29879,22 +29879,22 @@
         <v>166.7282288777068</v>
       </c>
       <c r="T33" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="U33" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="V33" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="W33" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="X33" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="Y33" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="F34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="G34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="H34" t="n">
         <v>160.2387893975297</v>
       </c>
       <c r="I34" t="n">
-        <v>148.7249418724712</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="J34" t="n">
-        <v>170.419169850243</v>
+        <v>77.54767148091739</v>
       </c>
       <c r="K34" t="n">
-        <v>170.419169850243</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="M34" t="n">
-        <v>86.98607671303743</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>170.419169850243</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="Q34" t="n">
-        <v>170.419169850243</v>
+        <v>67.43505263269697</v>
       </c>
       <c r="R34" t="n">
         <v>167.2376215800181</v>
       </c>
       <c r="S34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="T34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="U34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="V34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="W34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="X34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.419169850243</v>
+        <v>170.4191698502428</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="C35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="D35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="E35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="F35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="G35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="H35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="I35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="J35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="L35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>191.1381132929484</v>
       </c>
       <c r="N35" t="n">
-        <v>197.6588582652589</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="P35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="R35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="S35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="T35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="U35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="V35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="W35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="X35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="Y35" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
     </row>
     <row r="36">
@@ -30074,64 +30074,64 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>197.6588582652589</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>197.6588582652589</v>
+        <v>137.076757581733</v>
       </c>
       <c r="H36" t="n">
         <v>109.6591082785412</v>
       </c>
       <c r="I36" t="n">
-        <v>80.21214726106585</v>
+        <v>103.9013423157162</v>
       </c>
       <c r="J36" t="n">
-        <v>78.41429997398188</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>94.76561655653892</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>80.63362065245525</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>74.54323996603426</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>61.96199093401879</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>79.12735402155596</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>83.0350273337411</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.9301475100312</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>129.1170099490616</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="S36" t="n">
-        <v>191.3091955044735</v>
+        <v>166.7282288777068</v>
       </c>
       <c r="T36" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="U36" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="V36" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="W36" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="X36" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="Y36" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
     </row>
     <row r="37">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="F37" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="G37" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="H37" t="n">
-        <v>160.2387893975297</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="I37" t="n">
-        <v>148.7249418724712</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="J37" t="n">
-        <v>197.6588582652589</v>
+        <v>77.54767148091739</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>197.6588582652589</v>
+        <v>67.43505263269697</v>
       </c>
       <c r="R37" t="n">
-        <v>197.6588582652589</v>
+        <v>167.2376215800181</v>
       </c>
       <c r="S37" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="T37" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="U37" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="V37" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="W37" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="X37" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="C38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="D38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="E38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="F38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="G38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="H38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="I38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="J38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="K38" t="n">
-        <v>196.1543833420418</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="L38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="M38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="N38" t="n">
-        <v>197.658858265259</v>
+        <v>185.466427669837</v>
       </c>
       <c r="O38" t="n">
-        <v>197.658858265259</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="Q38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="R38" t="n">
-        <v>118.5506893885697</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="S38" t="n">
-        <v>197.6588582652589</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="T38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="U38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="V38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="W38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="X38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="Y38" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -30314,10 +30314,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.076757581733</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6591082785412</v>
+        <v>155.7040461617922</v>
       </c>
       <c r="I39" t="n">
         <v>80.21214726106585</v>
@@ -30353,22 +30353,22 @@
         <v>166.7282288777068</v>
       </c>
       <c r="T39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="U39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="V39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="W39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="X39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="Y39" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
     </row>
     <row r="40">
@@ -30381,28 +30381,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>163.1195566070117</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="G40" t="n">
-        <v>167.767337086383</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="H40" t="n">
-        <v>160.2387893975297</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="I40" t="n">
         <v>148.7249418724712</v>
       </c>
       <c r="J40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>167.2376215800181</v>
       </c>
       <c r="S40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="T40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="U40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="V40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="W40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="X40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652588</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="C41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="D41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="E41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="F41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="G41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="H41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="I41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="J41" t="n">
-        <v>152.4604983101559</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="K41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="L41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="N41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="O41" t="n">
-        <v>197.658858265259</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Q41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="R41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="S41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y41" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="42">
@@ -30590,22 +30590,22 @@
         <v>166.7282288777068</v>
       </c>
       <c r="T42" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U42" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V42" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W42" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X42" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y42" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30615,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="G43" t="n">
-        <v>167.767337086383</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="H43" t="n">
-        <v>197.658858265259</v>
+        <v>160.2387893975297</v>
       </c>
       <c r="I43" t="n">
-        <v>197.658858265259</v>
+        <v>148.7249418724712</v>
       </c>
       <c r="J43" t="n">
-        <v>197.658858265259</v>
+        <v>77.54767148091737</v>
       </c>
       <c r="K43" t="n">
-        <v>103.0300923784621</v>
+        <v>179.358301076443</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>197.658858265259</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>132.7780110104484</v>
+        <v>67.43505263269697</v>
       </c>
       <c r="R43" t="n">
-        <v>167.2376215800181</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="S43" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="T43" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="U43" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="V43" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="W43" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="X43" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.658858265259</v>
+        <v>197.6588582652589</v>
       </c>
     </row>
     <row r="44">
@@ -30730,7 +30730,7 @@
         <v>197.6588582652589</v>
       </c>
       <c r="N44" t="n">
-        <v>197.6588582652589</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>197.6588582652589</v>
@@ -30739,7 +30739,7 @@
         <v>197.6588582652589</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="R44" t="n">
         <v>197.6588582652589</v>
@@ -30794,7 +30794,7 @@
         <v>109.6591082785412</v>
       </c>
       <c r="I45" t="n">
-        <v>90.33789440965079</v>
+        <v>80.21214726106584</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>129.1170099490616</v>
+        <v>185.4629376537072</v>
       </c>
       <c r="S45" t="n">
         <v>166.7282288777068</v>
@@ -30852,16 +30852,16 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>179.8319801819373</v>
+      </c>
+      <c r="C46" t="n">
         <v>197.6588582652589</v>
       </c>
-      <c r="C46" t="n">
-        <v>167.2468210986278</v>
-      </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>197.6588582652589</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30870,34 +30870,34 @@
         <v>167.767337086383</v>
       </c>
       <c r="H46" t="n">
-        <v>160.2387893975298</v>
+        <v>160.2387893975297</v>
       </c>
       <c r="I46" t="n">
         <v>148.7249418724712</v>
       </c>
       <c r="J46" t="n">
-        <v>111.1839128036408</v>
+        <v>77.54767148091737</v>
       </c>
       <c r="K46" t="n">
-        <v>30.64904530947042</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>197.6588582652589</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
       <c r="Q46" t="n">
-        <v>197.6588582652589</v>
+        <v>67.43505263269697</v>
       </c>
       <c r="R46" t="n">
         <v>197.6588582652589</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4985720821058247</v>
+        <v>0.4985720821058248</v>
       </c>
       <c r="H41" t="n">
-        <v>5.106001335866278</v>
+        <v>5.10600133586628</v>
       </c>
       <c r="I41" t="n">
-        <v>19.22120019538482</v>
+        <v>19.22120019538483</v>
       </c>
       <c r="J41" t="n">
-        <v>42.31568225362928</v>
+        <v>42.31568225362929</v>
       </c>
       <c r="K41" t="n">
-        <v>63.42023848916885</v>
+        <v>63.42023848916887</v>
       </c>
       <c r="L41" t="n">
-        <v>78.67841384691499</v>
+        <v>78.67841384691502</v>
       </c>
       <c r="M41" t="n">
-        <v>87.54489511206445</v>
+        <v>87.54489511206448</v>
       </c>
       <c r="N41" t="n">
-        <v>88.96146304034764</v>
+        <v>88.96146304034767</v>
       </c>
       <c r="O41" t="n">
-        <v>84.00378689890783</v>
+        <v>84.00378689890786</v>
       </c>
       <c r="P41" t="n">
-        <v>71.69528862192027</v>
+        <v>71.6952886219203</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.84017593150541</v>
+        <v>53.84017593150543</v>
       </c>
       <c r="R41" t="n">
-        <v>31.31842855258004</v>
+        <v>31.31842855258005</v>
       </c>
       <c r="S41" t="n">
-        <v>11.36121132098649</v>
+        <v>11.3612113209865</v>
       </c>
       <c r="T41" t="n">
-        <v>2.182499289418248</v>
+        <v>2.182499289418249</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03988576656846596</v>
+        <v>0.03988576656846598</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,40 +34202,40 @@
         <v>0.2667595814776592</v>
       </c>
       <c r="H42" t="n">
-        <v>2.576335957955287</v>
+        <v>2.576335957955288</v>
       </c>
       <c r="I42" t="n">
-        <v>9.18448559034923</v>
+        <v>9.184485590349233</v>
       </c>
       <c r="J42" t="n">
         <v>25.20293045881692</v>
       </c>
       <c r="K42" t="n">
-        <v>43.07582241782008</v>
+        <v>43.07582241782009</v>
       </c>
       <c r="L42" t="n">
-        <v>57.92075912741893</v>
+        <v>57.92075912741895</v>
       </c>
       <c r="M42" t="n">
-        <v>67.59079395598405</v>
+        <v>67.59079395598408</v>
       </c>
       <c r="N42" t="n">
-        <v>69.37972114931452</v>
+        <v>69.37972114931453</v>
       </c>
       <c r="O42" t="n">
-        <v>63.46889042288849</v>
+        <v>63.46889042288851</v>
       </c>
       <c r="P42" t="n">
-        <v>50.93938008058915</v>
+        <v>50.93938008058916</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.05162657599032</v>
+        <v>34.05162657599033</v>
       </c>
       <c r="R42" t="n">
         <v>16.56249401490239</v>
       </c>
       <c r="S42" t="n">
-        <v>4.954942226131077</v>
+        <v>4.954942226131079</v>
       </c>
       <c r="T42" t="n">
         <v>1.075228313061266</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2236422720757481</v>
+        <v>0.2236422720757482</v>
       </c>
       <c r="H43" t="n">
-        <v>1.988383109909835</v>
+        <v>1.988383109909836</v>
       </c>
       <c r="I43" t="n">
-        <v>6.725533054787046</v>
+        <v>6.725533054787048</v>
       </c>
       <c r="J43" t="n">
-        <v>15.81150863575539</v>
+        <v>15.8115086357554</v>
       </c>
       <c r="K43" t="n">
-        <v>25.98316579207328</v>
+        <v>25.98316579207329</v>
       </c>
       <c r="L43" t="n">
-        <v>33.24950652297078</v>
+        <v>33.24950652297079</v>
       </c>
       <c r="M43" t="n">
-        <v>35.05694270365568</v>
+        <v>35.05694270365569</v>
       </c>
       <c r="N43" t="n">
-        <v>34.22336696228246</v>
+        <v>34.22336696228248</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61081860212485</v>
+        <v>31.61081860212486</v>
       </c>
       <c r="P43" t="n">
-        <v>27.04851625177956</v>
+        <v>27.04851625177957</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.72699061899742</v>
+        <v>18.72699061899743</v>
       </c>
       <c r="R43" t="n">
-        <v>10.05576979715136</v>
+        <v>10.05576979715137</v>
       </c>
       <c r="S43" t="n">
-        <v>3.897474868810991</v>
+        <v>3.897474868810992</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9555624352327418</v>
+        <v>0.9555624352327421</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01219866938594991</v>
+        <v>0.01219866938594992</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4985720821058236</v>
+        <v>0.4985720821058248</v>
       </c>
       <c r="H44" t="n">
-        <v>5.106001335866267</v>
+        <v>5.10600133586628</v>
       </c>
       <c r="I44" t="n">
-        <v>19.22120019538478</v>
+        <v>19.22120019538483</v>
       </c>
       <c r="J44" t="n">
-        <v>42.31568225362918</v>
+        <v>42.31568225362929</v>
       </c>
       <c r="K44" t="n">
-        <v>63.42023848916871</v>
+        <v>63.42023848916887</v>
       </c>
       <c r="L44" t="n">
-        <v>78.67841384691482</v>
+        <v>78.67841384691502</v>
       </c>
       <c r="M44" t="n">
-        <v>87.54489511206425</v>
+        <v>87.54489511206448</v>
       </c>
       <c r="N44" t="n">
-        <v>88.96146304034744</v>
+        <v>88.96146304034767</v>
       </c>
       <c r="O44" t="n">
-        <v>84.00378689890765</v>
+        <v>84.00378689890786</v>
       </c>
       <c r="P44" t="n">
-        <v>71.69528862192011</v>
+        <v>71.6952886219203</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.84017593150529</v>
+        <v>53.84017593150543</v>
       </c>
       <c r="R44" t="n">
-        <v>31.31842855257997</v>
+        <v>31.31842855258005</v>
       </c>
       <c r="S44" t="n">
-        <v>11.36121132098647</v>
+        <v>11.3612113209865</v>
       </c>
       <c r="T44" t="n">
-        <v>2.182499289418244</v>
+        <v>2.182499289418249</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03988576656846588</v>
+        <v>0.03988576656846598</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2667595814776585</v>
+        <v>0.2667595814776592</v>
       </c>
       <c r="H45" t="n">
-        <v>2.576335957955282</v>
+        <v>2.576335957955288</v>
       </c>
       <c r="I45" t="n">
-        <v>9.18448559034921</v>
+        <v>9.184485590349233</v>
       </c>
       <c r="J45" t="n">
-        <v>25.20293045881686</v>
+        <v>25.20293045881692</v>
       </c>
       <c r="K45" t="n">
-        <v>43.07582241781998</v>
+        <v>43.07582241782009</v>
       </c>
       <c r="L45" t="n">
-        <v>57.9207591274188</v>
+        <v>57.92075912741895</v>
       </c>
       <c r="M45" t="n">
-        <v>67.59079395598391</v>
+        <v>67.59079395598408</v>
       </c>
       <c r="N45" t="n">
-        <v>69.37972114931436</v>
+        <v>69.37972114931453</v>
       </c>
       <c r="O45" t="n">
-        <v>63.46889042288835</v>
+        <v>63.46889042288851</v>
       </c>
       <c r="P45" t="n">
-        <v>50.93938008058903</v>
+        <v>50.93938008058916</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.05162657599024</v>
+        <v>34.05162657599033</v>
       </c>
       <c r="R45" t="n">
-        <v>16.56249401490235</v>
+        <v>16.56249401490239</v>
       </c>
       <c r="S45" t="n">
-        <v>4.954942226131067</v>
+        <v>4.954942226131079</v>
       </c>
       <c r="T45" t="n">
-        <v>1.075228313061264</v>
+        <v>1.075228313061266</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01754997246563544</v>
+        <v>0.01754997246563548</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2236422720757477</v>
+        <v>0.2236422720757482</v>
       </c>
       <c r="H46" t="n">
-        <v>1.988383109909831</v>
+        <v>1.988383109909836</v>
       </c>
       <c r="I46" t="n">
-        <v>6.725533054787031</v>
+        <v>6.725533054787048</v>
       </c>
       <c r="J46" t="n">
-        <v>15.81150863575536</v>
+        <v>15.8115086357554</v>
       </c>
       <c r="K46" t="n">
-        <v>25.98316579207322</v>
+        <v>25.98316579207329</v>
       </c>
       <c r="L46" t="n">
-        <v>33.24950652297071</v>
+        <v>33.24950652297079</v>
       </c>
       <c r="M46" t="n">
-        <v>35.0569427036556</v>
+        <v>35.05694270365569</v>
       </c>
       <c r="N46" t="n">
-        <v>34.22336696228239</v>
+        <v>34.22336696228248</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61081860212478</v>
+        <v>31.61081860212486</v>
       </c>
       <c r="P46" t="n">
-        <v>27.04851625177951</v>
+        <v>27.04851625177957</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.72699061899738</v>
+        <v>18.72699061899743</v>
       </c>
       <c r="R46" t="n">
-        <v>10.05576979715134</v>
+        <v>10.05576979715137</v>
       </c>
       <c r="S46" t="n">
-        <v>3.897474868810983</v>
+        <v>3.897474868810992</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9555624352327398</v>
+        <v>0.9555624352327421</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01219866938594989</v>
+        <v>0.01219866938594992</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13.45514335471862</v>
+        <v>13.45514335471859</v>
       </c>
       <c r="J11" t="n">
-        <v>65.97961045668269</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.040220173928</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>77.18221890699203</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>64.25823217349642</v>
+        <v>64.2582321734964</v>
       </c>
       <c r="O11" t="n">
-        <v>89.16962419598033</v>
+        <v>58.61540820696078</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.24431878679563</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.15914334117005</v>
+        <v>86.15914334117002</v>
       </c>
       <c r="S11" t="n">
-        <v>7.050974464480852</v>
+        <v>7.050974464480824</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35465,16 +35465,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>5.07596318441431</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>57.26476716510095</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>59.64062033635579</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35510,10 +35510,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>40.68171386519254</v>
       </c>
       <c r="S12" t="n">
-        <v>37.98160385203296</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35541,34 +35541,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>24.87785254780238</v>
       </c>
       <c r="C13" t="n">
-        <v>37.46301163111187</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.27587008317053</v>
+        <v>58.2758700831705</v>
       </c>
       <c r="F13" t="n">
-        <v>59.28878470680846</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>36.94249564335666</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>44.47104333220993</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.52591992609898</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3.13051526881456</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35586,10 +35586,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>87.11684000946512</v>
       </c>
       <c r="R13" t="n">
-        <v>37.47221114972158</v>
+        <v>37.47221114972155</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>13.45514335471862</v>
+        <v>13.45514335471867</v>
       </c>
       <c r="J14" t="n">
-        <v>65.97961045668269</v>
+        <v>24.99696846717801</v>
       </c>
       <c r="K14" t="n">
-        <v>48.040220173928</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.62183160666746</v>
+        <v>47.62183160666751</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>61.90849461453148</v>
       </c>
       <c r="N14" t="n">
-        <v>64.25823217349642</v>
+        <v>64.25823217349648</v>
       </c>
       <c r="O14" t="n">
-        <v>58.61540820696081</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="P14" t="n">
-        <v>45.17212559639043</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>36.24431878679569</v>
       </c>
       <c r="R14" t="n">
-        <v>60.16372091392733</v>
+        <v>51.1851569799498</v>
       </c>
       <c r="S14" t="n">
-        <v>7.050974464480852</v>
+        <v>7.050974464480909</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>57.26476716510095</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35717,10 +35717,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5.075963184414305</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>100.3223342015479</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>37.98160385203296</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35781,25 +35781,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>37.46301163111193</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.27587008317053</v>
+        <v>54.47637108860492</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.28878470680851</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>44.47104333221002</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>55.98489085726852</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35814,19 +35814,19 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>103.6361464994337</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>55.31247446383046</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.93182171929128</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.47221114972164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>103.6361464994337</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>9.769251500553109</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35902,22 +35902,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.769251500552892</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="S17" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="T17" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="U17" t="n">
-        <v>83.06303363863267</v>
+        <v>83.06303363863273</v>
       </c>
       <c r="V17" t="n">
-        <v>6.616542309765805</v>
+        <v>6.616542309765862</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>103.6361464994337</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>103.6361464994337</v>
+        <v>9.769251500552778</v>
       </c>
       <c r="S20" t="n">
-        <v>92.83228513918563</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>103.6361464994336</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>83.06303363863279</v>
       </c>
       <c r="V20" t="n">
         <v>6.616542309765919</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36376,16 +36376,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.769251500552883</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>103.6361464994337</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.6361464994337</v>
+        <v>9.769251500552635</v>
       </c>
       <c r="T23" t="n">
-        <v>103.6361464994337</v>
+        <v>103.6361464994335</v>
       </c>
       <c r="U23" t="n">
         <v>83.06303363863279</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>200.7855627492597</v>
+        <v>200.7855627492596</v>
       </c>
       <c r="K26" t="n">
-        <v>337.894969865596</v>
+        <v>167.475800015353</v>
       </c>
       <c r="L26" t="n">
-        <v>260.5732134273782</v>
+        <v>430.992383277621</v>
       </c>
       <c r="M26" t="n">
-        <v>477.1313652278672</v>
+        <v>326.6779545556528</v>
       </c>
       <c r="N26" t="n">
-        <v>368.7295634954399</v>
+        <v>467.3144937059838</v>
       </c>
       <c r="O26" t="n">
-        <v>234.7057567399665</v>
+        <v>405.1249265902093</v>
       </c>
       <c r="P26" t="n">
-        <v>332.6801708883763</v>
+        <v>162.2610010381334</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.2686465672036</v>
+        <v>214.2686465672035</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.86848046167319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>71.4173702314137</v>
+        <v>16.63838688660669</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>290.2067246510039</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>235.4277413061961</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>21.8036968320306</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>23.98520720367378</v>
+        <v>23.98520720367367</v>
       </c>
       <c r="F28" t="n">
-        <v>24.99812182731171</v>
+        <v>24.99812182731159</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,31 +36750,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.87149836932556</v>
+        <v>83.54890668574352</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>60.83953178328692</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>66.55032860629358</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>76.95699234729221</v>
+        <v>248.7747091917539</v>
       </c>
       <c r="O28" t="n">
-        <v>72.67906272565644</v>
+        <v>56.19594651616453</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.984117217546</v>
+        <v>102.9841172175459</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>3.181548270224717</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>200.7855627492597</v>
+        <v>31.68894757718586</v>
       </c>
       <c r="K29" t="n">
-        <v>337.894969865596</v>
+        <v>337.8949698655959</v>
       </c>
       <c r="L29" t="n">
-        <v>430.9923832776211</v>
+        <v>260.5732134273782</v>
       </c>
       <c r="M29" t="n">
-        <v>306.7121953776242</v>
+        <v>477.1313652278671</v>
       </c>
       <c r="N29" t="n">
-        <v>316.8610830337659</v>
+        <v>467.3144937059838</v>
       </c>
       <c r="O29" t="n">
-        <v>234.7057567399665</v>
+        <v>405.1249265902093</v>
       </c>
       <c r="P29" t="n">
-        <v>332.6801708883763</v>
+        <v>211.2264091203926</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.2686465672036</v>
+        <v>214.2686465672035</v>
       </c>
       <c r="R29" t="n">
-        <v>51.86848046167331</v>
+        <v>21.54627687927306</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36884,7 +36884,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.885986200375612</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>169.6996204560397</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>29.11236465537665</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>306.8451115376104</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.1471402258179</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36966,52 +36966,52 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.172348751615118</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>21.8036968320306</v>
+        <v>21.80369683203051</v>
       </c>
       <c r="E31" t="n">
-        <v>23.98520720367378</v>
+        <v>23.9852072036737</v>
       </c>
       <c r="F31" t="n">
-        <v>24.99812182731171</v>
+        <v>24.99812182731162</v>
       </c>
       <c r="G31" t="n">
-        <v>2.651832763859941</v>
+        <v>2.651832763859856</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18038045271321</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>21.69422797777171</v>
+        <v>21.69422797777163</v>
       </c>
       <c r="J31" t="n">
-        <v>92.87149836932556</v>
+        <v>92.87149836932548</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3.713673966190427</v>
       </c>
       <c r="L31" t="n">
-        <v>60.83953178328692</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>74.64081966549627</v>
       </c>
       <c r="N31" t="n">
         <v>78.35553934151105</v>
       </c>
       <c r="O31" t="n">
-        <v>56.19594651616453</v>
+        <v>198.9539389652469</v>
       </c>
       <c r="P31" t="n">
-        <v>143.7386768229278</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.18154827022483</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>200.7855627492597</v>
+        <v>200.7855627492596</v>
       </c>
       <c r="K32" t="n">
-        <v>337.894969865596</v>
+        <v>183.7634600673529</v>
       </c>
       <c r="L32" t="n">
-        <v>430.9923832776211</v>
+        <v>430.992383277621</v>
       </c>
       <c r="M32" t="n">
-        <v>378.5464350173227</v>
+        <v>477.1313652278671</v>
       </c>
       <c r="N32" t="n">
         <v>296.8953238557409</v>
       </c>
       <c r="O32" t="n">
-        <v>405.1249265902094</v>
+        <v>405.1249265902093</v>
       </c>
       <c r="P32" t="n">
-        <v>332.6801708883763</v>
+        <v>165.9391001641621</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.84947671696061</v>
+        <v>214.2686465672035</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.86848046167319</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>24.45633913255906</v>
       </c>
       <c r="K33" t="n">
-        <v>71.4173702314137</v>
+        <v>169.6996204560397</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>112.6891519490119</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>235.4277413061961</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,49 +37203,49 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>3.172348751615004</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>21.80369683203048</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>23.98520720367367</v>
       </c>
       <c r="F34" t="n">
-        <v>24.99812182731171</v>
+        <v>24.99812182731159</v>
       </c>
       <c r="G34" t="n">
-        <v>2.651832763859941</v>
+        <v>2.651832763859827</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>21.6942279777716</v>
       </c>
       <c r="J34" t="n">
-        <v>92.87149836932556</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>67.38907747178085</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.78400009197544</v>
+        <v>231.2587016335298</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>189.5931854954932</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>19.35817455570988</v>
       </c>
       <c r="P34" t="n">
-        <v>59.7396820528749</v>
+        <v>194.7462453669159</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.64115883979453</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.404168890237855</v>
+        <v>6.404168890237742</v>
       </c>
       <c r="J35" t="n">
-        <v>170.8547882996814</v>
+        <v>202.9700037320447</v>
       </c>
       <c r="K35" t="n">
-        <v>167.475800015353</v>
+        <v>40.98924570944713</v>
       </c>
       <c r="L35" t="n">
-        <v>458.2320716926371</v>
+        <v>458.232071692637</v>
       </c>
       <c r="M35" t="n">
-        <v>306.7121953776242</v>
+        <v>497.8503086705726</v>
       </c>
       <c r="N35" t="n">
-        <v>57.20725770901566</v>
+        <v>296.8953238557409</v>
       </c>
       <c r="O35" t="n">
-        <v>432.3646150052254</v>
+        <v>432.3646150052253</v>
       </c>
       <c r="P35" t="n">
-        <v>359.9198593033923</v>
+        <v>38.12115113190956</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.84947671696061</v>
+        <v>29.19334432231476</v>
       </c>
       <c r="R35" t="n">
-        <v>13.39174900370686</v>
+        <v>13.39174900370674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37370,16 +37370,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>52.58964587187506</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>60.58210068352597</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.68919505465032</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37406,10 +37406,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>114.0635181275181</v>
       </c>
       <c r="S36" t="n">
-        <v>24.5809666267667</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -37437,34 +37437,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>17.82687808332153</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>30.41203716663099</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.04338524704647</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>51.22489561868966</v>
       </c>
       <c r="F37" t="n">
-        <v>52.2378102423277</v>
+        <v>52.23781024232758</v>
       </c>
       <c r="G37" t="n">
-        <v>29.89152117887593</v>
+        <v>29.89152117887582</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>37.42006886772909</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>48.93391639278759</v>
       </c>
       <c r="J37" t="n">
-        <v>96.7409036745772</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.713673966190427</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>18.81109064998527</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37482,10 +37482,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.223805632562</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>30.42123668524082</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.404168890237884</v>
+        <v>6.404168890237742</v>
       </c>
       <c r="J38" t="n">
-        <v>58.92863599220196</v>
+        <v>228.0252511642756</v>
       </c>
       <c r="K38" t="n">
-        <v>121.9575845367753</v>
+        <v>276.7837041583928</v>
       </c>
       <c r="L38" t="n">
-        <v>458.2320716926372</v>
+        <v>40.57085714218658</v>
       </c>
       <c r="M38" t="n">
-        <v>54.85752015005069</v>
+        <v>504.3710536428831</v>
       </c>
       <c r="N38" t="n">
-        <v>494.5541821209998</v>
+        <v>45.01482711359375</v>
       </c>
       <c r="O38" t="n">
-        <v>432.3646150052255</v>
+        <v>234.7057567399665</v>
       </c>
       <c r="P38" t="n">
-        <v>359.9198593033923</v>
+        <v>359.9198593033922</v>
       </c>
       <c r="Q38" t="n">
-        <v>29.1933443223149</v>
+        <v>241.5083349822194</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>79.10816887668918</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37595,7 +37595,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>31.12567461539149</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -37610,10 +37610,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>60.58210068352585</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>46.04493788325102</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>137.7527131821675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37677,40 +37677,40 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>30.41203716663114</v>
+        <v>30.41203716663099</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>14.50408358879937</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>51.22489561868966</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>52.23781024232758</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>29.89152117887582</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>37.42006886772909</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.1111867843416</v>
+        <v>120.1111867843414</v>
       </c>
       <c r="K40" t="n">
         <v>3.713673966190427</v>
       </c>
       <c r="L40" t="n">
-        <v>32.28202048941299</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>74.64081966549627</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>78.35553934151105</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.404168890237884</v>
+        <v>6.404168890237777</v>
       </c>
       <c r="J41" t="n">
-        <v>182.8268912091726</v>
+        <v>58.92863599220186</v>
       </c>
       <c r="K41" t="n">
-        <v>40.98924570944727</v>
+        <v>365.1346582806119</v>
       </c>
       <c r="L41" t="n">
-        <v>458.2320716926372</v>
+        <v>40.57085714218664</v>
       </c>
       <c r="M41" t="n">
-        <v>306.7121953776242</v>
+        <v>504.3710536428831</v>
       </c>
       <c r="N41" t="n">
-        <v>289.146612229935</v>
+        <v>494.5541821209998</v>
       </c>
       <c r="O41" t="n">
-        <v>51.56443374248008</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>359.9198593033923</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.5083349822196</v>
+        <v>173.1368176376167</v>
       </c>
       <c r="R41" t="n">
-        <v>79.10816887668932</v>
+        <v>13.39174900370678</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>137.7527131821675</v>
+        <v>137.7527131821682</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,34 +37911,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.82687808332167</v>
+        <v>17.82687808332156</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>30.41203716663102</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>49.0433852470465</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>51.22489561868969</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>52.23781024232761</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>29.89152117887584</v>
       </c>
       <c r="H43" t="n">
-        <v>37.42006886772923</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>48.93391639278774</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.1111867843416</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>78.45751319145127</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37953,13 +37953,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>115.2232272854032</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>30.42123668524074</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6.404168890237756</v>
+        <v>6.404168890237777</v>
       </c>
       <c r="J44" t="n">
-        <v>228.0252511642755</v>
+        <v>228.0252511642756</v>
       </c>
       <c r="K44" t="n">
-        <v>365.1346582806118</v>
+        <v>68.41472639616849</v>
       </c>
       <c r="L44" t="n">
-        <v>458.232071692637</v>
+        <v>458.2320716926371</v>
       </c>
       <c r="M44" t="n">
-        <v>54.85752015005041</v>
+        <v>504.3710536428831</v>
       </c>
       <c r="N44" t="n">
-        <v>98.0820885236991</v>
+        <v>296.8953238557409</v>
       </c>
       <c r="O44" t="n">
-        <v>432.3646150052252</v>
+        <v>51.56443374247999</v>
       </c>
       <c r="P44" t="n">
-        <v>359.9198593033921</v>
+        <v>359.9198593033923</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>29.1933443223148</v>
       </c>
       <c r="R44" t="n">
-        <v>13.39174900370673</v>
+        <v>13.39174900370678</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>137.7527131821681</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>81.40678547752259</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>56.34592770464564</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38148,16 +38148,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.82687808332159</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>30.41203716663102</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>49.0433852470465</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>51.22489561868969</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>226.3863153902113</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>178.4137226959762</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.88084725481042</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>30.42123668524074</v>
